--- a/프로젝트일정관리_간트차트.xlsx
+++ b/프로젝트일정관리_간트차트.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB6ED29-CE04-4832-9A5B-5959391DF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1CA3F2-A3C7-4036-AA51-E1207E79674A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,16 +1459,22 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1480,14 +1486,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1694,10 +1694,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1709,12 +1711,10 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1758,7 +1758,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
       <border>
@@ -1769,7 +1769,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -1860,6 +1860,23 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1875,7 +1892,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -1896,23 +1913,6 @@
         </patternFill>
       </fill>
       <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2326,8 +2326,8 @@
   </sheetPr>
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BN37" sqref="BN37"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2351,29 +2351,29 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="89">
+      <c r="P1" s="91">
         <f ca="1">TODAY()</f>
-        <v>45789</v>
-      </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
+        <v>45796</v>
+      </c>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
     </row>
     <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -2382,28 +2382,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="87">
+      <c r="P2" s="89">
         <v>1</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
     </row>
     <row r="3" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -2422,76 +2422,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="83">
+      <c r="H4" s="94">
         <f ca="1">H5</f>
-        <v>45789</v>
-      </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84">
+        <v>45796</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88">
         <f ca="1">O5</f>
-        <v>45796</v>
-      </c>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84">
+        <v>45803</v>
+      </c>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88">
         <f ca="1">V5</f>
-        <v>45803</v>
-      </c>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84">
+        <v>45810</v>
+      </c>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88">
         <f ca="1">AC5</f>
-        <v>45810</v>
-      </c>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84">
+        <v>45817</v>
+      </c>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88">
         <f ca="1">AJ5</f>
-        <v>45817</v>
-      </c>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84">
+        <v>45824</v>
+      </c>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88">
         <f ca="1">AQ5</f>
-        <v>45824</v>
-      </c>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84">
+        <v>45831</v>
+      </c>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88">
         <f ca="1">AX5</f>
-        <v>45831</v>
-      </c>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
+        <v>45838</v>
+      </c>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -2501,214 +2501,214 @@
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="86" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="I5" s="22">
         <f ca="1">H5+1</f>
-        <v>45790</v>
+        <v>45797</v>
       </c>
       <c r="J5" s="22">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>45791</v>
+        <v>45798</v>
       </c>
       <c r="K5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="M5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="N5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="O5" s="24">
         <f ca="1">N5+1</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="P5" s="22">
         <f ca="1">O5+1</f>
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="Q5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="R5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="S5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="T5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="U5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="V5" s="24">
         <f ca="1">U5+1</f>
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="W5" s="22">
         <f ca="1">V5+1</f>
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="X5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="Y5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="Z5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="AA5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="AB5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="AC5" s="24">
         <f ca="1">AB5+1</f>
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="AD5" s="22">
         <f ca="1">AC5+1</f>
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="AE5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="AF5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="AG5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="AH5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="AI5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="AJ5" s="24">
         <f ca="1">AI5+1</f>
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="AK5" s="22">
         <f ca="1">AJ5+1</f>
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="AL5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="AM5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="AN5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="AO5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="AP5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="AQ5" s="24">
         <f ca="1">AP5+1</f>
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="AR5" s="22">
         <f ca="1">AQ5+1</f>
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="AS5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="AT5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="AU5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="AV5" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="AW5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="AX5" s="24">
         <f ca="1">AW5+1</f>
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="AY5" s="22">
         <f ca="1">AX5+1</f>
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="AZ5" s="22">
         <f t="shared" ref="AZ5" ca="1" si="1">AY5+1</f>
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="BA5" s="22">
         <f t="shared" ref="BA5" ca="1" si="2">AZ5+1</f>
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="BB5" s="22">
         <f t="shared" ref="BB5" ca="1" si="3">BA5+1</f>
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="BC5" s="22">
         <f t="shared" ref="BC5" ca="1" si="4">BB5+1</f>
-        <v>45836</v>
+        <v>45843</v>
       </c>
       <c r="BD5" s="23">
         <f t="shared" ref="BD5" ca="1" si="5">BC5+1</f>
-        <v>45837</v>
+        <v>45844</v>
       </c>
       <c r="BE5"/>
       <c r="BF5"/>
@@ -2719,11 +2719,11 @@
       <c r="BK5"/>
     </row>
     <row r="6" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="92"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="6">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -3077,11 +3077,11 @@
       </c>
       <c r="D9" s="35">
         <f ca="1">Project_Start</f>
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="E9" s="35">
         <f ca="1">D9+0</f>
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="4">
@@ -3155,11 +3155,11 @@
       </c>
       <c r="D10" s="38">
         <f ca="1">E9</f>
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="E10" s="38">
         <f ca="1">D10+0</f>
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="4">
@@ -3233,11 +3233,11 @@
       </c>
       <c r="D11" s="38">
         <f ca="1">E10</f>
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="E11" s="38">
         <f ca="1">D11+0</f>
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="4">
@@ -3380,11 +3380,11 @@
       </c>
       <c r="D13" s="45">
         <f ca="1">E11</f>
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="E13" s="45">
         <f ca="1">D13+1</f>
-        <v>45790</v>
+        <v>45797</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="4">
@@ -3454,15 +3454,15 @@
         <v>14</v>
       </c>
       <c r="C14" s="44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="45">
         <f ca="1">E13+1</f>
-        <v>45791</v>
+        <v>45798</v>
       </c>
       <c r="E14" s="45">
         <f ca="1">D14+1</f>
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="4">
@@ -3536,11 +3536,11 @@
       </c>
       <c r="D15" s="45">
         <f ca="1">E14+1</f>
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="E15" s="45">
         <f ca="1">D15+2</f>
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="4">
@@ -3616,11 +3616,11 @@
       </c>
       <c r="D16" s="45">
         <f ca="1">E15+1</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="E16" s="45">
         <f ca="1">D16+0</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="4">
@@ -3764,11 +3764,11 @@
       </c>
       <c r="D18" s="51">
         <f ca="1">E16</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="E18" s="51">
         <f ca="1">D18+0</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="4">
@@ -3842,11 +3842,11 @@
       </c>
       <c r="D19" s="51">
         <f ca="1">E18</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="E19" s="51">
         <f ca="1">D19+0</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="4">
@@ -3920,11 +3920,11 @@
       </c>
       <c r="D20" s="51">
         <f ca="1">E19</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="E20" s="51">
         <f ca="1">D20+0</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="4">
@@ -3998,11 +3998,11 @@
       </c>
       <c r="D21" s="51">
         <f ca="1">D18+0</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="E21" s="51">
         <f ca="1">D21+0</f>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="4">
@@ -4143,11 +4143,11 @@
       </c>
       <c r="D23" s="35">
         <f ca="1">E21+1</f>
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="E23" s="35">
         <f ca="1">D23+6</f>
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="4"/>
@@ -4218,11 +4218,11 @@
       <c r="C24" s="34"/>
       <c r="D24" s="35">
         <f ca="1">E23+1</f>
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="E24" s="35">
         <f ca="1">D24+3</f>
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="4"/>
@@ -4293,11 +4293,11 @@
       </c>
       <c r="D25" s="35">
         <f ca="1">E24+1</f>
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="E25" s="35">
         <f ca="1">D25+2</f>
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="4"/>
@@ -4368,11 +4368,11 @@
       </c>
       <c r="D26" s="35">
         <f ca="1">E25+1</f>
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="E26" s="35">
         <f ca="1">D26+1</f>
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="4"/>
@@ -4443,11 +4443,11 @@
       </c>
       <c r="D27" s="35">
         <f ca="1">E26+1</f>
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="E27" s="35">
         <f ca="1">D27+1</f>
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="4"/>
@@ -4518,11 +4518,11 @@
       </c>
       <c r="D28" s="35">
         <f t="shared" ref="D28:D29" ca="1" si="10">E27+1</f>
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="E28" s="35">
         <f t="shared" ref="E28" ca="1" si="11">D28+1</f>
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="4"/>
@@ -4593,11 +4593,11 @@
       </c>
       <c r="D29" s="35">
         <f t="shared" ca="1" si="10"/>
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="E29" s="35">
         <f ca="1">D29</f>
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="4">
@@ -4743,11 +4743,11 @@
       </c>
       <c r="D31" s="45">
         <f ca="1">E29+1</f>
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="E31" s="45">
         <f ca="1">D31</f>
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="4">
@@ -4821,11 +4821,11 @@
       </c>
       <c r="D32" s="45">
         <f ca="1">E31+1</f>
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="E32" s="45">
         <f ca="1">D32</f>
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="4">
@@ -4899,11 +4899,11 @@
       </c>
       <c r="D33" s="45">
         <f ca="1">E32+1</f>
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="E33" s="45">
         <f ca="1">D33</f>
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="4">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="D35" s="51">
         <f ca="1">E33+1</f>
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="E35" s="51">
         <f ca="1">D35</f>
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="4">
@@ -5125,11 +5125,11 @@
       </c>
       <c r="D36" s="51">
         <f ca="1">E35+1</f>
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="E36" s="51">
         <f ca="1">D36+1</f>
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4">
@@ -5203,11 +5203,11 @@
       </c>
       <c r="D37" s="51">
         <f ca="1">E36</f>
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="E37" s="51">
         <f ca="1">D37+1</f>
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="4">
@@ -5352,11 +5352,11 @@
       </c>
       <c r="D39" s="35">
         <f ca="1">E37+1</f>
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="E39" s="35">
         <f ca="1">D39</f>
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="4">
@@ -5432,11 +5432,11 @@
       </c>
       <c r="D40" s="38">
         <f ca="1">E39+1</f>
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="E40" s="38">
         <f ca="1">D40</f>
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="4">
@@ -5510,11 +5510,11 @@
       </c>
       <c r="D41" s="38">
         <f ca="1">E40+1</f>
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="E41" s="38">
         <f ca="1">D41</f>
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="4">
@@ -5588,11 +5588,11 @@
       </c>
       <c r="D42" s="38">
         <f ca="1">E41+1</f>
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="E42" s="38">
         <f ca="1">D42</f>
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="4">
@@ -5666,11 +5666,11 @@
       </c>
       <c r="D43" s="38">
         <f t="shared" ref="D43:D44" ca="1" si="12">E42</f>
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="E43" s="38">
         <f ca="1">D43</f>
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4">
@@ -5744,11 +5744,11 @@
       </c>
       <c r="D44" s="38">
         <f t="shared" ca="1" si="12"/>
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="E44" s="38">
         <f ca="1">D44+9</f>
-        <v>45837</v>
+        <v>45844</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="4">
@@ -5908,11 +5908,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="P2:Y2"/>
@@ -5924,6 +5919,11 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="AQ4:AW4"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="C7:C46">
@@ -5941,19 +5941,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:K27">
-    <cfRule type="expression" dxfId="29" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="34">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="34">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD16 H14:AW16">
-    <cfRule type="expression" dxfId="27" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="37">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="37">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AW11">
@@ -5987,11 +5987,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:AW37">
-    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="27">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:AW44">
@@ -6005,11 +6005,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:BD29">
-    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:BD33">
@@ -6123,23 +6123,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6455,29 +6444,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6504,9 +6493,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/프로젝트일정관리_간트차트.xlsx
+++ b/프로젝트일정관리_간트차트.xlsx
@@ -8,22 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1CA3F2-A3C7-4036-AA51-E1207E79674A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3FD150-1C01-487D-BDE5-74F48447DD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
+    <sheet name="프로젝트 일정(v2.0)" sheetId="13" r:id="rId1"/>
+    <sheet name="프로젝트 일정(원본)" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Display_Week">'Project schedule'!$P$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project schedule'!$4:$6</definedName>
-    <definedName name="Project_Start">'Project schedule'!$P$1</definedName>
-    <definedName name="task_end" localSheetId="0">'Project schedule'!$E1</definedName>
-    <definedName name="task_progress" localSheetId="0">'Project schedule'!$C1</definedName>
-    <definedName name="task_start" localSheetId="0">'Project schedule'!$D1</definedName>
+    <definedName name="Display_Week" localSheetId="0">'프로젝트 일정(v2.0)'!$P$2</definedName>
+    <definedName name="Display_Week">'프로젝트 일정(원본)'!$P$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'프로젝트 일정(v2.0)'!$4:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'프로젝트 일정(원본)'!$4:$6</definedName>
+    <definedName name="Project_Start" localSheetId="0">'프로젝트 일정(v2.0)'!$P$1</definedName>
+    <definedName name="Project_Start">'프로젝트 일정(원본)'!$P$1</definedName>
+    <definedName name="task_end" localSheetId="0">'프로젝트 일정(v2.0)'!$E1</definedName>
+    <definedName name="task_end" localSheetId="1">'프로젝트 일정(원본)'!$E1</definedName>
+    <definedName name="task_progress" localSheetId="0">'프로젝트 일정(v2.0)'!$C1</definedName>
+    <definedName name="task_progress" localSheetId="1">'프로젝트 일정(원본)'!$C1</definedName>
+    <definedName name="task_start" localSheetId="0">'프로젝트 일정(v2.0)'!$D1</definedName>
+    <definedName name="task_start" localSheetId="1">'프로젝트 일정(원본)'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
-    <definedName name="ㅁ1">'Project schedule'!$B:$B</definedName>
+    <definedName name="today" localSheetId="1">TODAY()</definedName>
+    <definedName name="ㅁ1" localSheetId="0">'프로젝트 일정(v2.0)'!$B:$B</definedName>
+    <definedName name="ㅁ1">'프로젝트 일정(원본)'!$B:$B</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -582,6 +591,19 @@
     </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
+  <si>
+    <t>변경사항</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 구조 설계</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증 시험 벼락치기하느라고 과제 못 해서 밀림.
+DB 구조 설계 추가</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -594,7 +616,7 @@
     <numFmt numFmtId="179" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="180" formatCode="d"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +930,29 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -971,7 +1016,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1196,6 +1241,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1227,7 +1386,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1459,6 +1618,39 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1472,20 +1664,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1505,7 +1694,422 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2017,15 +2621,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="totalRow" dxfId="36"/>
-      <tableStyleElement type="firstColumn" dxfId="35"/>
-      <tableStyleElement type="lastColumn" dxfId="34"/>
-      <tableStyleElement type="firstRowStripe" dxfId="33"/>
-      <tableStyleElement type="secondRowStripe" dxfId="32"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="31"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="68"/>
+      <tableStyleElement type="headerRow" dxfId="67"/>
+      <tableStyleElement type="totalRow" dxfId="66"/>
+      <tableStyleElement type="firstColumn" dxfId="65"/>
+      <tableStyleElement type="lastColumn" dxfId="64"/>
+      <tableStyleElement type="firstRowStripe" dxfId="63"/>
+      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="60"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2320,14 +2924,3864 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A03D6EE-FCBC-409B-A9A8-393362BE94DB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BK49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BK18" sqref="BK18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.6875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.3125" customWidth="1"/>
+    <col min="3" max="3" width="10.6875" customWidth="1"/>
+    <col min="4" max="4" width="10.6875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6875" customWidth="1"/>
+    <col min="6" max="6" width="2.6875" customWidth="1"/>
+    <col min="7" max="7" width="6" hidden="1" customWidth="1"/>
+    <col min="8" max="61" width="2.6875" customWidth="1"/>
+    <col min="62" max="62" width="10.875" customWidth="1"/>
+    <col min="63" max="63" width="44.0625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="55.05" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="A1" s="7"/>
+      <c r="B1" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="103">
+        <v>45789</v>
+      </c>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+    </row>
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="H2" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+    </row>
+    <row r="3" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+    </row>
+    <row r="4" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="H4" s="106">
+        <f>H5</f>
+        <v>45789</v>
+      </c>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95">
+        <f>O5</f>
+        <v>45796</v>
+      </c>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95">
+        <f>V5</f>
+        <v>45803</v>
+      </c>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95">
+        <f>AC5</f>
+        <v>45810</v>
+      </c>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95">
+        <f>AJ5</f>
+        <v>45817</v>
+      </c>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="95">
+        <f>AQ5</f>
+        <v>45824</v>
+      </c>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="95">
+        <f>AX5</f>
+        <v>45831</v>
+      </c>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK4" s="94"/>
+    </row>
+    <row r="5" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="96"/>
+      <c r="B5" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="22">
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>45789</v>
+      </c>
+      <c r="I5" s="22">
+        <f>H5+1</f>
+        <v>45790</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" ref="J5:AW5" si="0">I5+1</f>
+        <v>45791</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="0"/>
+        <v>45792</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
+        <v>45794</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" si="0"/>
+        <v>45795</v>
+      </c>
+      <c r="O5" s="24">
+        <f>N5+1</f>
+        <v>45796</v>
+      </c>
+      <c r="P5" s="22">
+        <f>O5+1</f>
+        <v>45797</v>
+      </c>
+      <c r="Q5" s="22">
+        <f t="shared" si="0"/>
+        <v>45798</v>
+      </c>
+      <c r="R5" s="22">
+        <f t="shared" si="0"/>
+        <v>45799</v>
+      </c>
+      <c r="S5" s="22">
+        <f t="shared" si="0"/>
+        <v>45800</v>
+      </c>
+      <c r="T5" s="22">
+        <f t="shared" si="0"/>
+        <v>45801</v>
+      </c>
+      <c r="U5" s="23">
+        <f t="shared" si="0"/>
+        <v>45802</v>
+      </c>
+      <c r="V5" s="24">
+        <f>U5+1</f>
+        <v>45803</v>
+      </c>
+      <c r="W5" s="22">
+        <f>V5+1</f>
+        <v>45804</v>
+      </c>
+      <c r="X5" s="22">
+        <f t="shared" si="0"/>
+        <v>45805</v>
+      </c>
+      <c r="Y5" s="22">
+        <f t="shared" si="0"/>
+        <v>45806</v>
+      </c>
+      <c r="Z5" s="22">
+        <f t="shared" si="0"/>
+        <v>45807</v>
+      </c>
+      <c r="AA5" s="22">
+        <f t="shared" si="0"/>
+        <v>45808</v>
+      </c>
+      <c r="AB5" s="23">
+        <f t="shared" si="0"/>
+        <v>45809</v>
+      </c>
+      <c r="AC5" s="24">
+        <f>AB5+1</f>
+        <v>45810</v>
+      </c>
+      <c r="AD5" s="22">
+        <f>AC5+1</f>
+        <v>45811</v>
+      </c>
+      <c r="AE5" s="22">
+        <f t="shared" si="0"/>
+        <v>45812</v>
+      </c>
+      <c r="AF5" s="22">
+        <f t="shared" si="0"/>
+        <v>45813</v>
+      </c>
+      <c r="AG5" s="22">
+        <f t="shared" si="0"/>
+        <v>45814</v>
+      </c>
+      <c r="AH5" s="22">
+        <f t="shared" si="0"/>
+        <v>45815</v>
+      </c>
+      <c r="AI5" s="23">
+        <f t="shared" si="0"/>
+        <v>45816</v>
+      </c>
+      <c r="AJ5" s="24">
+        <f>AI5+1</f>
+        <v>45817</v>
+      </c>
+      <c r="AK5" s="22">
+        <f>AJ5+1</f>
+        <v>45818</v>
+      </c>
+      <c r="AL5" s="22">
+        <f t="shared" si="0"/>
+        <v>45819</v>
+      </c>
+      <c r="AM5" s="22">
+        <f t="shared" si="0"/>
+        <v>45820</v>
+      </c>
+      <c r="AN5" s="22">
+        <f t="shared" si="0"/>
+        <v>45821</v>
+      </c>
+      <c r="AO5" s="22">
+        <f t="shared" si="0"/>
+        <v>45822</v>
+      </c>
+      <c r="AP5" s="23">
+        <f t="shared" si="0"/>
+        <v>45823</v>
+      </c>
+      <c r="AQ5" s="24">
+        <f>AP5+1</f>
+        <v>45824</v>
+      </c>
+      <c r="AR5" s="22">
+        <f>AQ5+1</f>
+        <v>45825</v>
+      </c>
+      <c r="AS5" s="22">
+        <f t="shared" si="0"/>
+        <v>45826</v>
+      </c>
+      <c r="AT5" s="22">
+        <f t="shared" si="0"/>
+        <v>45827</v>
+      </c>
+      <c r="AU5" s="22">
+        <f t="shared" si="0"/>
+        <v>45828</v>
+      </c>
+      <c r="AV5" s="22">
+        <f t="shared" si="0"/>
+        <v>45829</v>
+      </c>
+      <c r="AW5" s="23">
+        <f t="shared" si="0"/>
+        <v>45830</v>
+      </c>
+      <c r="AX5" s="24">
+        <f>AW5+1</f>
+        <v>45831</v>
+      </c>
+      <c r="AY5" s="22">
+        <f>AX5+1</f>
+        <v>45832</v>
+      </c>
+      <c r="AZ5" s="22">
+        <f t="shared" ref="AZ5:BD5" si="1">AY5+1</f>
+        <v>45833</v>
+      </c>
+      <c r="BA5" s="22">
+        <f t="shared" si="1"/>
+        <v>45834</v>
+      </c>
+      <c r="BB5" s="22">
+        <f t="shared" si="1"/>
+        <v>45835</v>
+      </c>
+      <c r="BC5" s="22">
+        <f t="shared" si="1"/>
+        <v>45836</v>
+      </c>
+      <c r="BD5" s="23">
+        <f t="shared" si="1"/>
+        <v>45837</v>
+      </c>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5" s="91">
+        <v>45803</v>
+      </c>
+      <c r="BK5" s="89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="H6" s="25" t="str">
+        <f t="shared" ref="H6:BD6" si="2">LEFT(TEXT(H5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="I6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="J6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="K6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="L6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="M6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="N6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="O6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="P6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="Q6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="R6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="S6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="T6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="U6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="V6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="W6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="X6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="Y6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="Z6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AA6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AB6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AC6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="AD6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AE6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AF6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AG6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AH6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AI6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AJ6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="AK6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AL6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AM6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AN6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AO6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AP6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AQ6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="AR6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AS6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AT6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AU6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AV6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AW6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AX6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="AY6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AZ6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="BA6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="BB6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="BC6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="BD6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="90"/>
+    </row>
+    <row r="7" spans="1:63" s="17" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="17" t="str">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="84"/>
+    </row>
+    <row r="8" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="4" t="str">
+        <f t="shared" ref="G8:G47" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="32"/>
+      <c r="BD8" s="32"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8" s="83"/>
+      <c r="BK8" s="85"/>
+    </row>
+    <row r="9" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="34">
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <f>Project_Start</f>
+        <v>45789</v>
+      </c>
+      <c r="E9" s="35">
+        <f>D9+0</f>
+        <v>45789</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36"/>
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="85"/>
+    </row>
+    <row r="10" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <f>E9</f>
+        <v>45789</v>
+      </c>
+      <c r="E10" s="38">
+        <f>D10+0</f>
+        <v>45789</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="36"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="36"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10" s="86"/>
+      <c r="BK10" s="87"/>
+    </row>
+    <row r="11" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <f>E10</f>
+        <v>45789</v>
+      </c>
+      <c r="E11" s="38">
+        <f>D11+0</f>
+        <v>45789</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+    </row>
+    <row r="12" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="79"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="43"/>
+      <c r="AY12" s="43"/>
+      <c r="AZ12" s="43"/>
+      <c r="BA12" s="43"/>
+      <c r="BB12" s="43"/>
+      <c r="BC12" s="43"/>
+      <c r="BD12" s="43"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+    </row>
+    <row r="13" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1</v>
+      </c>
+      <c r="D13" s="45">
+        <f>E11</f>
+        <v>45789</v>
+      </c>
+      <c r="E13" s="45">
+        <f>D13+1</f>
+        <v>45790</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="36"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="36"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+    </row>
+    <row r="14" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1</v>
+      </c>
+      <c r="D14" s="45">
+        <f>E13+1</f>
+        <v>45791</v>
+      </c>
+      <c r="E14" s="45">
+        <f>D14+1</f>
+        <v>45792</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
+      <c r="AZ14" s="36"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+    </row>
+    <row r="15" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="45">
+        <f>E14+1</f>
+        <v>45793</v>
+      </c>
+      <c r="E15" s="45">
+        <f>D15+2</f>
+        <v>45795</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="80"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="36"/>
+      <c r="BA15" s="36"/>
+      <c r="BB15" s="36"/>
+      <c r="BC15" s="36"/>
+      <c r="BD15" s="36"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+    </row>
+    <row r="16" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0</v>
+      </c>
+      <c r="D16" s="45">
+        <f>E15+1</f>
+        <v>45796</v>
+      </c>
+      <c r="E16" s="45">
+        <f>D16+0</f>
+        <v>45796</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+    </row>
+    <row r="17" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="44">
+        <v>0</v>
+      </c>
+      <c r="D17" s="45">
+        <f>E16+1</f>
+        <v>45797</v>
+      </c>
+      <c r="E17" s="45">
+        <f>D17+0</f>
+        <v>45797</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="49"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="49"/>
+      <c r="AZ17" s="49"/>
+      <c r="BA17" s="49"/>
+      <c r="BB17" s="49"/>
+      <c r="BC17" s="49"/>
+      <c r="BD17" s="49"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+    </row>
+    <row r="18" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="49"/>
+      <c r="BA18" s="49"/>
+      <c r="BB18" s="49"/>
+      <c r="BC18" s="49"/>
+      <c r="BD18" s="49"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+    </row>
+    <row r="19" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0</v>
+      </c>
+      <c r="D19" s="51">
+        <f>E17</f>
+        <v>45797</v>
+      </c>
+      <c r="E19" s="51">
+        <f>D19+0</f>
+        <v>45797</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36"/>
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+    </row>
+    <row r="20" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="50">
+        <v>0</v>
+      </c>
+      <c r="D20" s="51">
+        <f>E19</f>
+        <v>45797</v>
+      </c>
+      <c r="E20" s="51">
+        <f>D20+0</f>
+        <v>45797</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="36"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+    </row>
+    <row r="21" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="50">
+        <v>0</v>
+      </c>
+      <c r="D21" s="51">
+        <f>E20</f>
+        <v>45797</v>
+      </c>
+      <c r="E21" s="51">
+        <f>D21+0</f>
+        <v>45797</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+    </row>
+    <row r="22" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0</v>
+      </c>
+      <c r="D22" s="51">
+        <f>D19+0</f>
+        <v>45797</v>
+      </c>
+      <c r="E22" s="51">
+        <f>D22+0</f>
+        <v>45797</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="36"/>
+      <c r="AX22" s="36"/>
+      <c r="AY22" s="36"/>
+      <c r="AZ22" s="36"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="36"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+    </row>
+    <row r="23" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+    </row>
+    <row r="24" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0</v>
+      </c>
+      <c r="D24" s="35">
+        <f>E22+1</f>
+        <v>45798</v>
+      </c>
+      <c r="E24" s="35">
+        <f>D24+6</f>
+        <v>45804</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="36"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="36"/>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="36"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="36"/>
+      <c r="BC24" s="36"/>
+      <c r="BD24" s="36"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+    </row>
+    <row r="25" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35">
+        <f>E24+1</f>
+        <v>45805</v>
+      </c>
+      <c r="E25" s="35">
+        <f>D25+3</f>
+        <v>45808</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="36"/>
+      <c r="AU25" s="36"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="36"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="36"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="36"/>
+      <c r="BC25" s="36"/>
+      <c r="BD25" s="36"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+    </row>
+    <row r="26" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="34">
+        <v>0</v>
+      </c>
+      <c r="D26" s="35">
+        <f>E25+1</f>
+        <v>45809</v>
+      </c>
+      <c r="E26" s="35">
+        <f>D26+2</f>
+        <v>45811</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="36"/>
+      <c r="AS26" s="36"/>
+      <c r="AT26" s="36"/>
+      <c r="AU26" s="36"/>
+      <c r="AV26" s="36"/>
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="36"/>
+      <c r="AY26" s="36"/>
+      <c r="AZ26" s="36"/>
+      <c r="BA26" s="36"/>
+      <c r="BB26" s="36"/>
+      <c r="BC26" s="36"/>
+      <c r="BD26" s="36"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+    </row>
+    <row r="27" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="35">
+        <f>E26+1</f>
+        <v>45812</v>
+      </c>
+      <c r="E27" s="35">
+        <f>D27+1</f>
+        <v>45813</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="36"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+    </row>
+    <row r="28" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="6"/>
+      <c r="B28" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0</v>
+      </c>
+      <c r="D28" s="35">
+        <f>E27+1</f>
+        <v>45814</v>
+      </c>
+      <c r="E28" s="35">
+        <f>D28+1</f>
+        <v>45815</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+    </row>
+    <row r="29" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="34">
+        <v>0</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" ref="D29:D30" si="4">E28+1</f>
+        <v>45816</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" ref="E29" si="5">D29+1</f>
+        <v>45817</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="36"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="36"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+    </row>
+    <row r="30" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="6"/>
+      <c r="B30" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="34">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <f t="shared" si="4"/>
+        <v>45818</v>
+      </c>
+      <c r="E30" s="35">
+        <f>D30</f>
+        <v>45818</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="36"/>
+      <c r="AU30" s="36"/>
+      <c r="AV30" s="36"/>
+      <c r="AW30" s="36"/>
+      <c r="AX30" s="36"/>
+      <c r="AY30" s="36"/>
+      <c r="AZ30" s="36"/>
+      <c r="BA30" s="36"/>
+      <c r="BB30" s="36"/>
+      <c r="BC30" s="36"/>
+      <c r="BD30" s="36"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+    </row>
+    <row r="31" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="6"/>
+      <c r="B31" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="43"/>
+      <c r="BA31" s="43"/>
+      <c r="BB31" s="43"/>
+      <c r="BC31" s="43"/>
+      <c r="BD31" s="43"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+    </row>
+    <row r="32" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="44">
+        <v>0</v>
+      </c>
+      <c r="D32" s="45">
+        <f>E30+1</f>
+        <v>45819</v>
+      </c>
+      <c r="E32" s="45">
+        <f>D32</f>
+        <v>45819</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="36"/>
+      <c r="AK32" s="36"/>
+      <c r="AL32" s="36"/>
+      <c r="AM32" s="36"/>
+      <c r="AN32" s="36"/>
+      <c r="AO32" s="36"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="36"/>
+      <c r="AR32" s="36"/>
+      <c r="AS32" s="36"/>
+      <c r="AT32" s="36"/>
+      <c r="AU32" s="36"/>
+      <c r="AV32" s="36"/>
+      <c r="AW32" s="36"/>
+      <c r="AX32" s="36"/>
+      <c r="AY32" s="36"/>
+      <c r="AZ32" s="36"/>
+      <c r="BA32" s="36"/>
+      <c r="BB32" s="36"/>
+      <c r="BC32" s="36"/>
+      <c r="BD32" s="36"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32"/>
+      <c r="BH32"/>
+      <c r="BI32"/>
+      <c r="BJ32"/>
+    </row>
+    <row r="33" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="6"/>
+      <c r="B33" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="44">
+        <v>0</v>
+      </c>
+      <c r="D33" s="45">
+        <f>E32+1</f>
+        <v>45820</v>
+      </c>
+      <c r="E33" s="45">
+        <f>D33</f>
+        <v>45820</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="36"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="36"/>
+      <c r="AR33" s="36"/>
+      <c r="AS33" s="36"/>
+      <c r="AT33" s="36"/>
+      <c r="AU33" s="36"/>
+      <c r="AV33" s="36"/>
+      <c r="AW33" s="36"/>
+      <c r="AX33" s="36"/>
+      <c r="AY33" s="36"/>
+      <c r="AZ33" s="36"/>
+      <c r="BA33" s="36"/>
+      <c r="BB33" s="36"/>
+      <c r="BC33" s="36"/>
+      <c r="BD33" s="36"/>
+      <c r="BE33"/>
+      <c r="BF33"/>
+      <c r="BG33"/>
+      <c r="BH33"/>
+      <c r="BI33"/>
+      <c r="BJ33"/>
+    </row>
+    <row r="34" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="6"/>
+      <c r="B34" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="44">
+        <v>0</v>
+      </c>
+      <c r="D34" s="45">
+        <f>E33+1</f>
+        <v>45821</v>
+      </c>
+      <c r="E34" s="45">
+        <f>D34</f>
+        <v>45821</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="36"/>
+      <c r="BB34" s="36"/>
+      <c r="BC34" s="36"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+    </row>
+    <row r="35" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="49"/>
+      <c r="BA35" s="49"/>
+      <c r="BB35" s="49"/>
+      <c r="BC35" s="49"/>
+      <c r="BD35" s="49"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+    </row>
+    <row r="36" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="6"/>
+      <c r="B36" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="50">
+        <v>0</v>
+      </c>
+      <c r="D36" s="51">
+        <f>E34+1</f>
+        <v>45822</v>
+      </c>
+      <c r="E36" s="51">
+        <f>D36</f>
+        <v>45822</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36"/>
+      <c r="BJ36"/>
+    </row>
+    <row r="37" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="6"/>
+      <c r="B37" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="50">
+        <v>0</v>
+      </c>
+      <c r="D37" s="51">
+        <f>E36+1</f>
+        <v>45823</v>
+      </c>
+      <c r="E37" s="51">
+        <f>D37+1</f>
+        <v>45824</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="36"/>
+      <c r="AU37" s="36"/>
+      <c r="AV37" s="36"/>
+      <c r="AW37" s="36"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="36"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="36"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+      <c r="BG37"/>
+      <c r="BH37"/>
+      <c r="BI37"/>
+      <c r="BJ37"/>
+    </row>
+    <row r="38" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="50">
+        <v>0</v>
+      </c>
+      <c r="D38" s="51">
+        <f>E37</f>
+        <v>45824</v>
+      </c>
+      <c r="E38" s="51">
+        <f>D38+1</f>
+        <v>45825</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
+      <c r="AT38" s="36"/>
+      <c r="AU38" s="36"/>
+      <c r="AV38" s="36"/>
+      <c r="AW38" s="36"/>
+      <c r="AY38" s="36"/>
+      <c r="AZ38" s="36"/>
+      <c r="BA38" s="36"/>
+      <c r="BB38" s="36"/>
+      <c r="BC38" s="36"/>
+      <c r="BD38" s="36"/>
+      <c r="BE38"/>
+      <c r="BF38"/>
+      <c r="BG38"/>
+      <c r="BH38"/>
+      <c r="BI38"/>
+      <c r="BJ38"/>
+    </row>
+    <row r="39" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="6"/>
+      <c r="B39" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="32"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="32"/>
+      <c r="AK39" s="32"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="32"/>
+      <c r="AO39" s="32"/>
+      <c r="AP39" s="32"/>
+      <c r="AQ39" s="32"/>
+      <c r="AR39" s="32"/>
+      <c r="AS39" s="32"/>
+      <c r="AT39" s="32"/>
+      <c r="AU39" s="32"/>
+      <c r="AV39" s="32"/>
+      <c r="AW39" s="32"/>
+      <c r="AX39" s="32"/>
+      <c r="AY39" s="32"/>
+      <c r="AZ39" s="32"/>
+      <c r="BA39" s="32"/>
+      <c r="BB39" s="32"/>
+      <c r="BC39" s="32"/>
+      <c r="BD39" s="32"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+    </row>
+    <row r="40" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="6"/>
+      <c r="B40" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="34">
+        <v>0</v>
+      </c>
+      <c r="D40" s="35">
+        <f>E38+1</f>
+        <v>45826</v>
+      </c>
+      <c r="E40" s="35">
+        <f>D40</f>
+        <v>45826</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="36"/>
+      <c r="AR40" s="36"/>
+      <c r="AS40" s="36"/>
+      <c r="AT40" s="36"/>
+      <c r="AU40" s="36"/>
+      <c r="AV40" s="36"/>
+      <c r="AW40" s="36"/>
+      <c r="AX40" s="36"/>
+      <c r="AY40" s="36"/>
+      <c r="AZ40" s="36"/>
+      <c r="BA40" s="36"/>
+      <c r="BB40" s="36"/>
+      <c r="BC40" s="36"/>
+      <c r="BD40" s="36"/>
+      <c r="BE40"/>
+      <c r="BF40"/>
+      <c r="BG40"/>
+      <c r="BH40"/>
+      <c r="BI40"/>
+      <c r="BJ40"/>
+    </row>
+    <row r="41" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A41" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="37">
+        <v>0</v>
+      </c>
+      <c r="D41" s="38">
+        <f>E40+1</f>
+        <v>45827</v>
+      </c>
+      <c r="E41" s="38">
+        <f>D41</f>
+        <v>45827</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="36"/>
+      <c r="AM41" s="36"/>
+      <c r="AN41" s="36"/>
+      <c r="AO41" s="36"/>
+      <c r="AP41" s="36"/>
+      <c r="AQ41" s="36"/>
+      <c r="AR41" s="36"/>
+      <c r="AS41" s="36"/>
+      <c r="AT41" s="36"/>
+      <c r="AU41" s="36"/>
+      <c r="AV41" s="36"/>
+      <c r="AW41" s="36"/>
+      <c r="AX41" s="36"/>
+      <c r="AY41" s="36"/>
+      <c r="AZ41" s="36"/>
+      <c r="BA41" s="36"/>
+      <c r="BB41" s="36"/>
+      <c r="BC41" s="36"/>
+      <c r="BD41" s="36"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+    </row>
+    <row r="42" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="37">
+        <v>0</v>
+      </c>
+      <c r="D42" s="38">
+        <f>E41+1</f>
+        <v>45828</v>
+      </c>
+      <c r="E42" s="38">
+        <f>D42</f>
+        <v>45828</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="36"/>
+      <c r="AN42" s="36"/>
+      <c r="AO42" s="36"/>
+      <c r="AP42" s="36"/>
+      <c r="AQ42" s="36"/>
+      <c r="AR42" s="36"/>
+      <c r="AS42" s="36"/>
+      <c r="AT42" s="36"/>
+      <c r="AU42" s="36"/>
+      <c r="AV42" s="36"/>
+      <c r="AW42" s="36"/>
+      <c r="AX42" s="36"/>
+      <c r="AY42" s="36"/>
+      <c r="AZ42" s="36"/>
+      <c r="BA42" s="36"/>
+      <c r="BB42" s="36"/>
+      <c r="BC42" s="36"/>
+      <c r="BD42" s="36"/>
+      <c r="BE42"/>
+      <c r="BF42"/>
+      <c r="BG42"/>
+      <c r="BH42"/>
+      <c r="BI42"/>
+      <c r="BJ42"/>
+    </row>
+    <row r="43" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="34">
+        <v>0</v>
+      </c>
+      <c r="D43" s="38">
+        <f>E42+1</f>
+        <v>45829</v>
+      </c>
+      <c r="E43" s="38">
+        <f>D43</f>
+        <v>45829</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="36"/>
+      <c r="AN43" s="36"/>
+      <c r="AO43" s="36"/>
+      <c r="AP43" s="36"/>
+      <c r="AQ43" s="36"/>
+      <c r="AR43" s="36"/>
+      <c r="AS43" s="36"/>
+      <c r="AT43" s="36"/>
+      <c r="AU43" s="36"/>
+      <c r="AV43" s="36"/>
+      <c r="AW43" s="36"/>
+      <c r="AX43" s="36"/>
+      <c r="AY43" s="36"/>
+      <c r="AZ43" s="36"/>
+      <c r="BA43" s="36"/>
+      <c r="BB43" s="36"/>
+      <c r="BC43" s="36"/>
+      <c r="BD43" s="36"/>
+      <c r="BE43"/>
+      <c r="BF43"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
+    </row>
+    <row r="44" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="37">
+        <v>0</v>
+      </c>
+      <c r="D44" s="38">
+        <f t="shared" ref="D44:D45" si="6">E43</f>
+        <v>45829</v>
+      </c>
+      <c r="E44" s="38">
+        <f>D44</f>
+        <v>45829</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
+      <c r="AK44" s="36"/>
+      <c r="AL44" s="36"/>
+      <c r="AM44" s="36"/>
+      <c r="AN44" s="36"/>
+      <c r="AO44" s="36"/>
+      <c r="AP44" s="36"/>
+      <c r="AQ44" s="36"/>
+      <c r="AR44" s="36"/>
+      <c r="AS44" s="36"/>
+      <c r="AT44" s="36"/>
+      <c r="AU44" s="36"/>
+      <c r="AV44" s="36"/>
+      <c r="AW44" s="36"/>
+      <c r="AX44" s="36"/>
+      <c r="AY44" s="36"/>
+      <c r="AZ44" s="36"/>
+      <c r="BA44" s="36"/>
+      <c r="BB44" s="36"/>
+      <c r="BC44" s="36"/>
+      <c r="BD44" s="36"/>
+      <c r="BE44"/>
+      <c r="BF44"/>
+      <c r="BG44"/>
+      <c r="BH44"/>
+      <c r="BI44"/>
+      <c r="BJ44"/>
+    </row>
+    <row r="45" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="6"/>
+      <c r="B45" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="37">
+        <v>0</v>
+      </c>
+      <c r="D45" s="38">
+        <f t="shared" si="6"/>
+        <v>45829</v>
+      </c>
+      <c r="E45" s="38">
+        <f>D45+9</f>
+        <v>45838</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="36"/>
+      <c r="AJ45" s="36"/>
+      <c r="AK45" s="36"/>
+      <c r="AL45" s="36"/>
+      <c r="AM45" s="36"/>
+      <c r="AN45" s="36"/>
+      <c r="AO45" s="36"/>
+      <c r="AP45" s="36"/>
+      <c r="AQ45" s="36"/>
+      <c r="AR45" s="36"/>
+      <c r="AS45" s="36"/>
+      <c r="AT45" s="36"/>
+      <c r="AU45" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV45" s="36"/>
+      <c r="AW45" s="36"/>
+      <c r="AX45" s="36"/>
+      <c r="AY45" s="36"/>
+      <c r="AZ45" s="36"/>
+      <c r="BA45" s="36"/>
+      <c r="BB45" s="36"/>
+      <c r="BC45" s="36"/>
+      <c r="BD45" s="36"/>
+      <c r="BE45"/>
+      <c r="BF45"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+    </row>
+    <row r="46" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="6"/>
+      <c r="B46"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="4"/>
+      <c r="BE46"/>
+      <c r="BF46"/>
+      <c r="BG46"/>
+      <c r="BH46"/>
+      <c r="BI46"/>
+      <c r="BJ46"/>
+    </row>
+    <row r="47" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="7"/>
+      <c r="B47" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="58"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="58"/>
+      <c r="AI47" s="58"/>
+      <c r="AJ47" s="58"/>
+      <c r="AK47" s="58"/>
+      <c r="AL47" s="58"/>
+      <c r="AM47" s="58"/>
+      <c r="AN47" s="58"/>
+      <c r="AO47" s="58"/>
+      <c r="AP47" s="58"/>
+      <c r="AQ47" s="58"/>
+      <c r="AR47" s="58"/>
+      <c r="AS47" s="58"/>
+      <c r="AT47" s="58"/>
+      <c r="AU47" s="58"/>
+      <c r="AV47" s="58"/>
+      <c r="AW47" s="58"/>
+      <c r="AX47" s="58"/>
+      <c r="AY47" s="58"/>
+      <c r="AZ47" s="58"/>
+      <c r="BA47" s="58"/>
+      <c r="BB47" s="58"/>
+      <c r="BC47" s="58"/>
+      <c r="BD47" s="58"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+    </row>
+    <row r="48" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="P2:Y2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <conditionalFormatting sqref="C7:C47">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B48D017E-D034-476A-A705-6D694DBC7826}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:K28">
+    <cfRule type="expression" dxfId="59" priority="19">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD17 H14:AW17">
+    <cfRule type="expression" dxfId="57" priority="22">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:AW11">
+    <cfRule type="expression" dxfId="55" priority="24" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:AW30 AX8:BD30 H4:AW11 P12:AW12 H12:M13 O13:AW13 AY38:BD38">
+    <cfRule type="expression" dxfId="54" priority="21">
+      <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:AW30 AX36:BD37 AY38:BD38">
+    <cfRule type="expression" dxfId="53" priority="27" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:AW30 AY38:BD38 AX36:BD37">
+    <cfRule type="expression" dxfId="52" priority="26">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:AW45">
+    <cfRule type="expression" dxfId="51" priority="14">
+      <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:AW34">
+    <cfRule type="expression" dxfId="50" priority="18" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:AW38">
+    <cfRule type="expression" dxfId="49" priority="16">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:AW45">
+    <cfRule type="expression" dxfId="47" priority="15" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:BD11">
+    <cfRule type="expression" dxfId="46" priority="9">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:BD30">
+    <cfRule type="expression" dxfId="45" priority="7">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:BD34">
+    <cfRule type="expression" dxfId="43" priority="5">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:BD45">
+    <cfRule type="expression" dxfId="42" priority="2">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N13">
+    <cfRule type="expression" dxfId="41" priority="28">
+      <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU45">
+    <cfRule type="expression" dxfId="40" priority="29">
+      <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="30">
+      <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="31" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX4:BD6">
+    <cfRule type="expression" dxfId="37" priority="13">
+      <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX9:BD11">
+    <cfRule type="expression" dxfId="36" priority="10" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX19:BD30">
+    <cfRule type="expression" dxfId="35" priority="11">
+      <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="12" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX31:BD37">
+    <cfRule type="expression" dxfId="33" priority="4">
+      <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX32:BD34">
+    <cfRule type="expression" dxfId="32" priority="6" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX39:BD45">
+    <cfRule type="expression" dxfId="31" priority="1">
+      <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX40:BD45">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A47" xr:uid="{120E8D11-D308-4487-9B74-2CCFB88E612D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A18" xr:uid="{EA5FC299-A4C3-475D-A2AA-B35967F58308}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A12" xr:uid="{7D471A29-A11E-4076-8B28-08C079B8D18F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{D93EA667-029A-4AB3-B688-EA7C67B32250}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{7E214E01-4AD5-427C-8335-AF149800B872}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8" xr:uid="{1DE55573-61CB-48BF-B67E-DE8337BDB39A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{246BB061-6A8F-4D2B-86D6-628981BC4EC5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{79E47429-13B6-4A99-B59C-9903965A8D07}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{BB963AF2-E0D6-415F-BCDD-BCE47BFFBBB4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{D1DF53D7-7D7C-4E39-845B-948B0669DC7B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{AA0E632E-E003-436E-BB5C-553D8BB90F6E}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="P2" xr:uid="{9A55594E-33C4-4789-8EAF-A3B7F6E763CC}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B48D017E-D034-476A-A705-6D694DBC7826}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C7:C47</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2351,29 +6805,28 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="91">
-        <f ca="1">TODAY()</f>
-        <v>45796</v>
-      </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
+      <c r="P1" s="103">
+        <v>45789</v>
+      </c>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
     </row>
     <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -2382,28 +6835,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="89">
+      <c r="P2" s="105">
         <v>1</v>
       </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -2422,76 +6875,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="94">
-        <f ca="1">H5</f>
+      <c r="H4" s="106">
+        <f>H5</f>
+        <v>45789</v>
+      </c>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95">
+        <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88">
-        <f ca="1">O5</f>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95">
+        <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88">
-        <f ca="1">V5</f>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95">
+        <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88">
-        <f ca="1">AC5</f>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95">
+        <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88">
-        <f ca="1">AJ5</f>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="95">
+        <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88">
-        <f ca="1">AQ5</f>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="95">
+        <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="88">
-        <f ca="1">AX5</f>
-        <v>45838</v>
-      </c>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -2501,214 +6954,214 @@
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="99" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>45789</v>
+      </c>
+      <c r="I5" s="22">
+        <f>H5+1</f>
+        <v>45790</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" ref="J5:AW5" si="0">I5+1</f>
+        <v>45791</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="0"/>
+        <v>45792</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
+        <v>45794</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" si="0"/>
+        <v>45795</v>
+      </c>
+      <c r="O5" s="24">
+        <f>N5+1</f>
         <v>45796</v>
       </c>
-      <c r="I5" s="22">
-        <f ca="1">H5+1</f>
+      <c r="P5" s="22">
+        <f>O5+1</f>
         <v>45797</v>
       </c>
-      <c r="J5" s="22">
-        <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
+      <c r="Q5" s="22">
+        <f t="shared" si="0"/>
         <v>45798</v>
       </c>
-      <c r="K5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="R5" s="22">
+        <f t="shared" si="0"/>
         <v>45799</v>
       </c>
-      <c r="L5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="S5" s="22">
+        <f t="shared" si="0"/>
         <v>45800</v>
       </c>
-      <c r="M5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="T5" s="22">
+        <f t="shared" si="0"/>
         <v>45801</v>
       </c>
-      <c r="N5" s="23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="U5" s="23">
+        <f t="shared" si="0"/>
         <v>45802</v>
       </c>
-      <c r="O5" s="24">
-        <f ca="1">N5+1</f>
+      <c r="V5" s="24">
+        <f>U5+1</f>
         <v>45803</v>
       </c>
-      <c r="P5" s="22">
-        <f ca="1">O5+1</f>
+      <c r="W5" s="22">
+        <f>V5+1</f>
         <v>45804</v>
       </c>
-      <c r="Q5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="X5" s="22">
+        <f t="shared" si="0"/>
         <v>45805</v>
       </c>
-      <c r="R5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y5" s="22">
+        <f t="shared" si="0"/>
         <v>45806</v>
       </c>
-      <c r="S5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Z5" s="22">
+        <f t="shared" si="0"/>
         <v>45807</v>
       </c>
-      <c r="T5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AA5" s="22">
+        <f t="shared" si="0"/>
         <v>45808</v>
       </c>
-      <c r="U5" s="23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AB5" s="23">
+        <f t="shared" si="0"/>
         <v>45809</v>
       </c>
-      <c r="V5" s="24">
-        <f ca="1">U5+1</f>
+      <c r="AC5" s="24">
+        <f>AB5+1</f>
         <v>45810</v>
       </c>
-      <c r="W5" s="22">
-        <f ca="1">V5+1</f>
+      <c r="AD5" s="22">
+        <f>AC5+1</f>
         <v>45811</v>
       </c>
-      <c r="X5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AE5" s="22">
+        <f t="shared" si="0"/>
         <v>45812</v>
       </c>
-      <c r="Y5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AF5" s="22">
+        <f t="shared" si="0"/>
         <v>45813</v>
       </c>
-      <c r="Z5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AG5" s="22">
+        <f t="shared" si="0"/>
         <v>45814</v>
       </c>
-      <c r="AA5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AH5" s="22">
+        <f t="shared" si="0"/>
         <v>45815</v>
       </c>
-      <c r="AB5" s="23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AI5" s="23">
+        <f t="shared" si="0"/>
         <v>45816</v>
       </c>
-      <c r="AC5" s="24">
-        <f ca="1">AB5+1</f>
+      <c r="AJ5" s="24">
+        <f>AI5+1</f>
         <v>45817</v>
       </c>
-      <c r="AD5" s="22">
-        <f ca="1">AC5+1</f>
+      <c r="AK5" s="22">
+        <f>AJ5+1</f>
         <v>45818</v>
       </c>
-      <c r="AE5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AL5" s="22">
+        <f t="shared" si="0"/>
         <v>45819</v>
       </c>
-      <c r="AF5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AM5" s="22">
+        <f t="shared" si="0"/>
         <v>45820</v>
       </c>
-      <c r="AG5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AN5" s="22">
+        <f t="shared" si="0"/>
         <v>45821</v>
       </c>
-      <c r="AH5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AO5" s="22">
+        <f t="shared" si="0"/>
         <v>45822</v>
       </c>
-      <c r="AI5" s="23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AP5" s="23">
+        <f t="shared" si="0"/>
         <v>45823</v>
       </c>
-      <c r="AJ5" s="24">
-        <f ca="1">AI5+1</f>
+      <c r="AQ5" s="24">
+        <f>AP5+1</f>
         <v>45824</v>
       </c>
-      <c r="AK5" s="22">
-        <f ca="1">AJ5+1</f>
+      <c r="AR5" s="22">
+        <f>AQ5+1</f>
         <v>45825</v>
       </c>
-      <c r="AL5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AS5" s="22">
+        <f t="shared" si="0"/>
         <v>45826</v>
       </c>
-      <c r="AM5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AT5" s="22">
+        <f t="shared" si="0"/>
         <v>45827</v>
       </c>
-      <c r="AN5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AU5" s="22">
+        <f t="shared" si="0"/>
         <v>45828</v>
       </c>
-      <c r="AO5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AV5" s="22">
+        <f t="shared" si="0"/>
         <v>45829</v>
       </c>
-      <c r="AP5" s="23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AW5" s="23">
+        <f t="shared" si="0"/>
         <v>45830</v>
       </c>
-      <c r="AQ5" s="24">
-        <f ca="1">AP5+1</f>
+      <c r="AX5" s="24">
+        <f>AW5+1</f>
         <v>45831</v>
       </c>
-      <c r="AR5" s="22">
-        <f ca="1">AQ5+1</f>
+      <c r="AY5" s="22">
+        <f>AX5+1</f>
         <v>45832</v>
       </c>
-      <c r="AS5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AZ5" s="22">
+        <f t="shared" ref="AZ5" si="1">AY5+1</f>
         <v>45833</v>
       </c>
-      <c r="AT5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BA5" s="22">
+        <f t="shared" ref="BA5" si="2">AZ5+1</f>
         <v>45834</v>
       </c>
-      <c r="AU5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BB5" s="22">
+        <f t="shared" ref="BB5" si="3">BA5+1</f>
         <v>45835</v>
       </c>
-      <c r="AV5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BC5" s="22">
+        <f t="shared" ref="BC5" si="4">BB5+1</f>
         <v>45836</v>
       </c>
-      <c r="AW5" s="23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BD5" s="23">
+        <f t="shared" ref="BD5" si="5">BC5+1</f>
         <v>45837</v>
-      </c>
-      <c r="AX5" s="24">
-        <f ca="1">AW5+1</f>
-        <v>45838</v>
-      </c>
-      <c r="AY5" s="22">
-        <f ca="1">AX5+1</f>
-        <v>45839</v>
-      </c>
-      <c r="AZ5" s="22">
-        <f t="shared" ref="AZ5" ca="1" si="1">AY5+1</f>
-        <v>45840</v>
-      </c>
-      <c r="BA5" s="22">
-        <f t="shared" ref="BA5" ca="1" si="2">AZ5+1</f>
-        <v>45841</v>
-      </c>
-      <c r="BB5" s="22">
-        <f t="shared" ref="BB5" ca="1" si="3">BA5+1</f>
-        <v>45842</v>
-      </c>
-      <c r="BC5" s="22">
-        <f t="shared" ref="BC5" ca="1" si="4">BB5+1</f>
-        <v>45843</v>
-      </c>
-      <c r="BD5" s="23">
-        <f t="shared" ref="BD5" ca="1" si="5">BC5+1</f>
-        <v>45844</v>
       </c>
       <c r="BE5"/>
       <c r="BF5"/>
@@ -2719,205 +7172,205 @@
       <c r="BK5"/>
     </row>
     <row r="6" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="83"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
       <c r="H6" s="25" t="str">
-        <f t="shared" ref="H6:AM6" ca="1" si="6">LEFT(TEXT(H5,"ddd"),1)</f>
+        <f t="shared" ref="H6:AM6" si="6">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="I6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="J6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>W</v>
       </c>
       <c r="K6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="L6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="M6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="N6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="O6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>M</v>
       </c>
       <c r="P6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="Q6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>W</v>
       </c>
       <c r="R6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="S6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="T6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="U6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="V6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>M</v>
       </c>
       <c r="W6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="X6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>W</v>
       </c>
       <c r="Y6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="Z6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="AA6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AB6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AC6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>M</v>
       </c>
       <c r="AD6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="AE6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>W</v>
       </c>
       <c r="AF6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="AG6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="AH6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AI6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>M</v>
       </c>
       <c r="AK6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="AL6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>W</v>
       </c>
       <c r="AM6" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
       <c r="AN6" s="26" t="str">
-        <f t="shared" ref="AN6:AW6" ca="1" si="7">LEFT(TEXT(AN5,"ddd"),1)</f>
+        <f t="shared" ref="AN6:AW6" si="7">LEFT(TEXT(AN5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="AO6" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
       <c r="AP6" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>M</v>
       </c>
       <c r="AR6" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>T</v>
       </c>
       <c r="AS6" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="AT6" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>T</v>
       </c>
       <c r="AU6" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="AV6" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
       <c r="AW6" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
       <c r="AX6" s="26" t="str">
-        <f t="shared" ref="AX6:BD6" ca="1" si="8">LEFT(TEXT(AX5,"ddd"),1)</f>
+        <f t="shared" ref="AX6:BD6" si="8">LEFT(TEXT(AX5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="AY6" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>T</v>
       </c>
       <c r="AZ6" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="BA6" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>T</v>
       </c>
       <c r="BB6" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="BC6" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>S</v>
       </c>
       <c r="BD6" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" si="8"/>
         <v>S</v>
       </c>
       <c r="BE6"/>
@@ -3076,16 +7529,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="35">
-        <f ca="1">Project_Start</f>
-        <v>45796</v>
+        <f>Project_Start</f>
+        <v>45789</v>
       </c>
       <c r="E9" s="35">
-        <f ca="1">D9+0</f>
-        <v>45796</v>
+        <f>D9+0</f>
+        <v>45789</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H9" s="36"/>
@@ -3154,16 +7607,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="38">
-        <f ca="1">E9</f>
-        <v>45796</v>
+        <f>E9</f>
+        <v>45789</v>
       </c>
       <c r="E10" s="38">
-        <f ca="1">D10+0</f>
-        <v>45796</v>
+        <f>D10+0</f>
+        <v>45789</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H10" s="36"/>
@@ -3232,16 +7685,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="38">
-        <f ca="1">E10</f>
-        <v>45796</v>
+        <f>E10</f>
+        <v>45789</v>
       </c>
       <c r="E11" s="38">
-        <f ca="1">D11+0</f>
-        <v>45796</v>
+        <f>D11+0</f>
+        <v>45789</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H11" s="36"/>
@@ -3379,16 +7832,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="45">
-        <f ca="1">E11</f>
-        <v>45796</v>
+        <f>E11</f>
+        <v>45789</v>
       </c>
       <c r="E13" s="45">
-        <f ca="1">D13+1</f>
-        <v>45797</v>
+        <f>D13+1</f>
+        <v>45790</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H13" s="36"/>
@@ -3457,16 +7910,16 @@
         <v>0.5</v>
       </c>
       <c r="D14" s="45">
-        <f ca="1">E13+1</f>
-        <v>45798</v>
+        <f>E13+1</f>
+        <v>45791</v>
       </c>
       <c r="E14" s="45">
-        <f ca="1">D14+1</f>
-        <v>45799</v>
+        <f>D14+1</f>
+        <v>45792</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H14" s="36"/>
@@ -3535,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="45">
-        <f ca="1">E14+1</f>
-        <v>45800</v>
+        <f>E14+1</f>
+        <v>45793</v>
       </c>
       <c r="E15" s="45">
-        <f ca="1">D15+2</f>
-        <v>45802</v>
+        <f>D15+2</f>
+        <v>45795</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H15" s="36"/>
@@ -3615,16 +8068,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="45">
-        <f ca="1">E15+1</f>
-        <v>45803</v>
+        <f>E15+1</f>
+        <v>45796</v>
       </c>
       <c r="E16" s="45">
-        <f ca="1">D16+0</f>
-        <v>45803</v>
+        <f>D16+0</f>
+        <v>45796</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H16" s="36"/>
@@ -3763,16 +8216,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="51">
-        <f ca="1">E16</f>
-        <v>45803</v>
+        <f>E16</f>
+        <v>45796</v>
       </c>
       <c r="E18" s="51">
-        <f ca="1">D18+0</f>
-        <v>45803</v>
+        <f>D18+0</f>
+        <v>45796</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H18" s="36"/>
@@ -3841,16 +8294,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="51">
-        <f ca="1">E18</f>
-        <v>45803</v>
+        <f>E18</f>
+        <v>45796</v>
       </c>
       <c r="E19" s="51">
-        <f ca="1">D19+0</f>
-        <v>45803</v>
+        <f>D19+0</f>
+        <v>45796</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H19" s="36"/>
@@ -3919,16 +8372,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="51">
-        <f ca="1">E19</f>
-        <v>45803</v>
+        <f>E19</f>
+        <v>45796</v>
       </c>
       <c r="E20" s="51">
-        <f ca="1">D20+0</f>
-        <v>45803</v>
+        <f>D20+0</f>
+        <v>45796</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H20" s="36"/>
@@ -3997,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="51">
-        <f ca="1">D18+0</f>
-        <v>45803</v>
+        <f>D18+0</f>
+        <v>45796</v>
       </c>
       <c r="E21" s="51">
-        <f ca="1">D21+0</f>
-        <v>45803</v>
+        <f>D21+0</f>
+        <v>45796</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H21" s="36"/>
@@ -4142,12 +8595,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="35">
-        <f ca="1">E21+1</f>
-        <v>45804</v>
+        <f>E21+1</f>
+        <v>45797</v>
       </c>
       <c r="E23" s="35">
-        <f ca="1">D23+6</f>
-        <v>45810</v>
+        <f>D23+6</f>
+        <v>45803</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="4"/>
@@ -4217,12 +8670,12 @@
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="35">
-        <f ca="1">E23+1</f>
-        <v>45811</v>
+        <f>E23+1</f>
+        <v>45804</v>
       </c>
       <c r="E24" s="35">
-        <f ca="1">D24+3</f>
-        <v>45814</v>
+        <f>D24+3</f>
+        <v>45807</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="4"/>
@@ -4292,12 +8745,12 @@
         <v>0</v>
       </c>
       <c r="D25" s="35">
-        <f ca="1">E24+1</f>
-        <v>45815</v>
+        <f>E24+1</f>
+        <v>45808</v>
       </c>
       <c r="E25" s="35">
-        <f ca="1">D25+2</f>
-        <v>45817</v>
+        <f>D25+2</f>
+        <v>45810</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="4"/>
@@ -4367,12 +8820,12 @@
         <v>0</v>
       </c>
       <c r="D26" s="35">
-        <f ca="1">E25+1</f>
-        <v>45818</v>
+        <f>E25+1</f>
+        <v>45811</v>
       </c>
       <c r="E26" s="35">
-        <f ca="1">D26+1</f>
-        <v>45819</v>
+        <f>D26+1</f>
+        <v>45812</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="4"/>
@@ -4442,12 +8895,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="35">
-        <f ca="1">E26+1</f>
-        <v>45820</v>
+        <f>E26+1</f>
+        <v>45813</v>
       </c>
       <c r="E27" s="35">
-        <f ca="1">D27+1</f>
-        <v>45821</v>
+        <f>D27+1</f>
+        <v>45814</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="4"/>
@@ -4517,12 +8970,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="35">
-        <f t="shared" ref="D28:D29" ca="1" si="10">E27+1</f>
-        <v>45822</v>
+        <f t="shared" ref="D28:D29" si="10">E27+1</f>
+        <v>45815</v>
       </c>
       <c r="E28" s="35">
-        <f t="shared" ref="E28" ca="1" si="11">D28+1</f>
-        <v>45823</v>
+        <f t="shared" ref="E28" si="11">D28+1</f>
+        <v>45816</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="4"/>
@@ -4592,16 +9045,16 @@
         <v>0</v>
       </c>
       <c r="D29" s="35">
-        <f t="shared" ca="1" si="10"/>
-        <v>45824</v>
+        <f t="shared" si="10"/>
+        <v>45817</v>
       </c>
       <c r="E29" s="35">
-        <f ca="1">D29</f>
-        <v>45824</v>
+        <f>D29</f>
+        <v>45817</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H29" s="36"/>
@@ -4742,16 +9195,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="45">
-        <f ca="1">E29+1</f>
-        <v>45825</v>
+        <f>E29+1</f>
+        <v>45818</v>
       </c>
       <c r="E31" s="45">
-        <f ca="1">D31</f>
-        <v>45825</v>
+        <f>D31</f>
+        <v>45818</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H31" s="36"/>
@@ -4820,16 +9273,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="45">
-        <f ca="1">E31+1</f>
-        <v>45826</v>
+        <f>E31+1</f>
+        <v>45819</v>
       </c>
       <c r="E32" s="45">
-        <f ca="1">D32</f>
-        <v>45826</v>
+        <f>D32</f>
+        <v>45819</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H32" s="36"/>
@@ -4898,16 +9351,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="45">
-        <f ca="1">E32+1</f>
-        <v>45827</v>
+        <f>E32+1</f>
+        <v>45820</v>
       </c>
       <c r="E33" s="45">
-        <f ca="1">D33</f>
-        <v>45827</v>
+        <f>D33</f>
+        <v>45820</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H33" s="36"/>
@@ -5046,16 +9499,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="51">
-        <f ca="1">E33+1</f>
-        <v>45828</v>
+        <f>E33+1</f>
+        <v>45821</v>
       </c>
       <c r="E35" s="51">
-        <f ca="1">D35</f>
-        <v>45828</v>
+        <f>D35</f>
+        <v>45821</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H35" s="36"/>
@@ -5124,16 +9577,16 @@
         <v>0</v>
       </c>
       <c r="D36" s="51">
-        <f ca="1">E35+1</f>
-        <v>45829</v>
+        <f>E35+1</f>
+        <v>45822</v>
       </c>
       <c r="E36" s="51">
-        <f ca="1">D36+1</f>
-        <v>45830</v>
+        <f>D36+1</f>
+        <v>45823</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H36" s="36"/>
@@ -5202,16 +9655,16 @@
         <v>0</v>
       </c>
       <c r="D37" s="51">
-        <f ca="1">E36</f>
-        <v>45830</v>
+        <f>E36</f>
+        <v>45823</v>
       </c>
       <c r="E37" s="51">
-        <f ca="1">D37+1</f>
-        <v>45831</v>
+        <f>D37+1</f>
+        <v>45824</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H37" s="36"/>
@@ -5351,16 +9804,16 @@
         <v>0</v>
       </c>
       <c r="D39" s="35">
-        <f ca="1">E37+1</f>
-        <v>45832</v>
+        <f>E37+1</f>
+        <v>45825</v>
       </c>
       <c r="E39" s="35">
-        <f ca="1">D39</f>
-        <v>45832</v>
+        <f>D39</f>
+        <v>45825</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H39" s="36"/>
@@ -5431,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="D40" s="38">
-        <f ca="1">E39+1</f>
-        <v>45833</v>
+        <f>E39+1</f>
+        <v>45826</v>
       </c>
       <c r="E40" s="38">
-        <f ca="1">D40</f>
-        <v>45833</v>
+        <f>D40</f>
+        <v>45826</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H40" s="36"/>
@@ -5509,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="D41" s="38">
-        <f ca="1">E40+1</f>
-        <v>45834</v>
+        <f>E40+1</f>
+        <v>45827</v>
       </c>
       <c r="E41" s="38">
-        <f ca="1">D41</f>
-        <v>45834</v>
+        <f>D41</f>
+        <v>45827</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H41" s="36"/>
@@ -5587,16 +10040,16 @@
         <v>0</v>
       </c>
       <c r="D42" s="38">
-        <f ca="1">E41+1</f>
-        <v>45835</v>
+        <f>E41+1</f>
+        <v>45828</v>
       </c>
       <c r="E42" s="38">
-        <f ca="1">D42</f>
-        <v>45835</v>
+        <f>D42</f>
+        <v>45828</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H42" s="36"/>
@@ -5665,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="D43" s="38">
-        <f t="shared" ref="D43:D44" ca="1" si="12">E42</f>
-        <v>45835</v>
+        <f t="shared" ref="D43:D44" si="12">E42</f>
+        <v>45828</v>
       </c>
       <c r="E43" s="38">
-        <f ca="1">D43</f>
-        <v>45835</v>
+        <f>D43</f>
+        <v>45828</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H43" s="36"/>
@@ -5743,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="D44" s="38">
-        <f t="shared" ca="1" si="12"/>
-        <v>45835</v>
+        <f t="shared" si="12"/>
+        <v>45828</v>
       </c>
       <c r="E44" s="38">
-        <f ca="1">D44+9</f>
-        <v>45844</v>
+        <f>D44+9</f>
+        <v>45837</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H44" s="36"/>
@@ -6076,7 +10529,7 @@
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="12">
+  <dataValidations count="12">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="P2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -6123,6 +10576,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6131,7 +10604,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6443,27 +10916,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6471,7 +10943,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6492,25 +10964,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/프로젝트일정관리_간트차트.xlsx
+++ b/프로젝트일정관리_간트차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3FD150-1C01-487D-BDE5-74F48447DD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D5F0E-2EBA-4FE8-8EAA-B85D8ECAD946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2931,7 +2931,7 @@
   <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BK18" sqref="BK18"/>
+      <selection activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4145,13 +4145,13 @@
         <v>45793</v>
       </c>
       <c r="E15" s="45">
-        <f>D15+2</f>
-        <v>45795</v>
+        <f>D15+10</f>
+        <v>45803</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -4221,11 +4221,11 @@
       </c>
       <c r="D16" s="45">
         <f>E15+1</f>
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="E16" s="45">
         <f>D16+0</f>
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="4">
@@ -4298,11 +4298,11 @@
       </c>
       <c r="D17" s="45">
         <f>E16+1</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="E17" s="45">
         <f>D17+0</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="4"/>
@@ -4441,11 +4441,11 @@
       </c>
       <c r="D19" s="51">
         <f>E17</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="E19" s="51">
         <f>D19+0</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="4">
@@ -4518,11 +4518,11 @@
       </c>
       <c r="D20" s="51">
         <f>E19</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="E20" s="51">
         <f>D20+0</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="4">
@@ -4595,11 +4595,11 @@
       </c>
       <c r="D21" s="51">
         <f>E20</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="E21" s="51">
         <f>D21+0</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="4">
@@ -4672,11 +4672,11 @@
       </c>
       <c r="D22" s="51">
         <f>D19+0</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="E22" s="51">
         <f>D22+0</f>
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4">
@@ -4815,11 +4815,11 @@
       </c>
       <c r="D24" s="35">
         <f>E22+1</f>
-        <v>45798</v>
+        <v>45806</v>
       </c>
       <c r="E24" s="35">
         <f>D24+6</f>
-        <v>45804</v>
+        <v>45812</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="4"/>
@@ -4889,11 +4889,11 @@
       <c r="C25" s="34"/>
       <c r="D25" s="35">
         <f>E24+1</f>
-        <v>45805</v>
+        <v>45813</v>
       </c>
       <c r="E25" s="35">
         <f>D25+3</f>
-        <v>45808</v>
+        <v>45816</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="4"/>
@@ -4963,11 +4963,11 @@
       </c>
       <c r="D26" s="35">
         <f>E25+1</f>
-        <v>45809</v>
+        <v>45817</v>
       </c>
       <c r="E26" s="35">
         <f>D26+2</f>
-        <v>45811</v>
+        <v>45819</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="4"/>
@@ -5037,11 +5037,11 @@
       </c>
       <c r="D27" s="35">
         <f>E26+1</f>
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="E27" s="35">
         <f>D27+1</f>
-        <v>45813</v>
+        <v>45821</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="4"/>
@@ -5111,11 +5111,11 @@
       </c>
       <c r="D28" s="35">
         <f>E27+1</f>
-        <v>45814</v>
+        <v>45822</v>
       </c>
       <c r="E28" s="35">
         <f>D28+1</f>
-        <v>45815</v>
+        <v>45823</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="4"/>
@@ -5185,11 +5185,11 @@
       </c>
       <c r="D29" s="35">
         <f t="shared" ref="D29:D30" si="4">E28+1</f>
-        <v>45816</v>
+        <v>45824</v>
       </c>
       <c r="E29" s="35">
         <f t="shared" ref="E29" si="5">D29+1</f>
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="4"/>
@@ -5259,11 +5259,11 @@
       </c>
       <c r="D30" s="35">
         <f t="shared" si="4"/>
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="E30" s="35">
         <f>D30</f>
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="4">
@@ -5407,11 +5407,11 @@
       </c>
       <c r="D32" s="45">
         <f>E30+1</f>
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="E32" s="45">
         <f>D32</f>
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="4">
@@ -5484,11 +5484,11 @@
       </c>
       <c r="D33" s="45">
         <f>E32+1</f>
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="E33" s="45">
         <f>D33</f>
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="4">
@@ -5561,11 +5561,11 @@
       </c>
       <c r="D34" s="45">
         <f>E33+1</f>
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="E34" s="45">
         <f>D34</f>
-        <v>45821</v>
+        <v>45829</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="4">
@@ -5707,11 +5707,11 @@
       </c>
       <c r="D36" s="51">
         <f>E34+1</f>
-        <v>45822</v>
+        <v>45830</v>
       </c>
       <c r="E36" s="51">
         <f>D36</f>
-        <v>45822</v>
+        <v>45830</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4">
@@ -5784,11 +5784,11 @@
       </c>
       <c r="D37" s="51">
         <f>E36+1</f>
-        <v>45823</v>
+        <v>45831</v>
       </c>
       <c r="E37" s="51">
         <f>D37+1</f>
-        <v>45824</v>
+        <v>45832</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="4">
@@ -5861,11 +5861,11 @@
       </c>
       <c r="D38" s="51">
         <f>E37</f>
-        <v>45824</v>
+        <v>45832</v>
       </c>
       <c r="E38" s="51">
         <f>D38+1</f>
-        <v>45825</v>
+        <v>45833</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="4">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="D40" s="35">
         <f>E38+1</f>
-        <v>45826</v>
+        <v>45834</v>
       </c>
       <c r="E40" s="35">
         <f>D40</f>
-        <v>45826</v>
+        <v>45834</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="4">
@@ -6087,11 +6087,11 @@
       </c>
       <c r="D41" s="38">
         <f>E40+1</f>
-        <v>45827</v>
+        <v>45835</v>
       </c>
       <c r="E41" s="38">
         <f>D41</f>
-        <v>45827</v>
+        <v>45835</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="4">
@@ -6164,11 +6164,11 @@
       </c>
       <c r="D42" s="38">
         <f>E41+1</f>
-        <v>45828</v>
+        <v>45836</v>
       </c>
       <c r="E42" s="38">
         <f>D42</f>
-        <v>45828</v>
+        <v>45836</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="4">
@@ -6241,11 +6241,11 @@
       </c>
       <c r="D43" s="38">
         <f>E42+1</f>
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="E43" s="38">
         <f>D43</f>
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4">
@@ -6318,11 +6318,11 @@
       </c>
       <c r="D44" s="38">
         <f t="shared" ref="D44:D45" si="6">E43</f>
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="E44" s="38">
         <f>D44</f>
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="4">
@@ -6395,11 +6395,11 @@
       </c>
       <c r="D45" s="38">
         <f t="shared" si="6"/>
-        <v>45829</v>
+        <v>45837</v>
       </c>
       <c r="E45" s="38">
         <f>D45+9</f>
-        <v>45838</v>
+        <v>45846</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="4">
@@ -6781,7 +6781,7 @@
   <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+      <selection activeCell="BR17" sqref="BR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/프로젝트일정관리_간트차트.xlsx
+++ b/프로젝트일정관리_간트차트.xlsx
@@ -8,31 +8,214 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D5F0E-2EBA-4FE8-8EAA-B85D8ECAD946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916BEEC4-0CB0-4E43-9F2D-C89C3CBED7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="프로젝트 일정(v2.0)" sheetId="13" r:id="rId1"/>
+    <sheet name="프로젝트 일정_2.0" sheetId="13" r:id="rId1"/>
     <sheet name="프로젝트 일정(원본)" sheetId="11" r:id="rId2"/>
+    <sheet name="간트차트개정이력" sheetId="15" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="Display_Week" localSheetId="0">'프로젝트 일정(v2.0)'!$P$2</definedName>
+    <definedName name="_xlnm.Database">#REF!</definedName>
+    <definedName name="Display_Week" localSheetId="0">'프로젝트 일정_2.0'!$P$2</definedName>
     <definedName name="Display_Week">'프로젝트 일정(원본)'!$P$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'프로젝트 일정(v2.0)'!$4:$6</definedName>
+    <definedName name="Excel_BuiltIn_Database">#REF!</definedName>
+    <definedName name="f">BlankMacro1</definedName>
+    <definedName name="HTML_CodePage" hidden="1">949</definedName>
+    <definedName name="HTML_Control" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="HTML_Description" hidden="1">""</definedName>
+    <definedName name="HTML_Email" hidden="1">""</definedName>
+    <definedName name="HTML_Header" hidden="1">"juyo9803"</definedName>
+    <definedName name="HTML_LastUpdate" hidden="1">"98-05-26"</definedName>
+    <definedName name="HTML_LineAfter" hidden="1">FALSE</definedName>
+    <definedName name="HTML_LineBefore" hidden="1">FALSE</definedName>
+    <definedName name="HTML_Name" hidden="1">"김진택"</definedName>
+    <definedName name="HTML_OBDlg2" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OBDlg4" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OS" hidden="1">0</definedName>
+    <definedName name="HTML_PathFile" hidden="1">"C:\My Documents\98월별동향조사\작업장\MyHTML.htm"</definedName>
+    <definedName name="HTML_Title" hidden="1">"juyo9803"</definedName>
+    <definedName name="Print_Title">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'프로젝트 일정(원본)'!$4:$6</definedName>
-    <definedName name="Project_Start" localSheetId="0">'프로젝트 일정(v2.0)'!$P$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'프로젝트 일정_2.0'!$4:$6</definedName>
+    <definedName name="Project_Start" localSheetId="0">'프로젝트 일정_2.0'!$P$1</definedName>
     <definedName name="Project_Start">'프로젝트 일정(원본)'!$P$1</definedName>
-    <definedName name="task_end" localSheetId="0">'프로젝트 일정(v2.0)'!$E1</definedName>
+    <definedName name="Sw_pop">[1]Sw_pop!#REF!</definedName>
     <definedName name="task_end" localSheetId="1">'프로젝트 일정(원본)'!$E1</definedName>
-    <definedName name="task_progress" localSheetId="0">'프로젝트 일정(v2.0)'!$C1</definedName>
+    <definedName name="task_end" localSheetId="0">'프로젝트 일정_2.0'!$E1</definedName>
     <definedName name="task_progress" localSheetId="1">'프로젝트 일정(원본)'!$C1</definedName>
-    <definedName name="task_start" localSheetId="0">'프로젝트 일정(v2.0)'!$D1</definedName>
+    <definedName name="task_progress" localSheetId="0">'프로젝트 일정_2.0'!$C1</definedName>
     <definedName name="task_start" localSheetId="1">'프로젝트 일정(원본)'!$D1</definedName>
+    <definedName name="task_start" localSheetId="0">'프로젝트 일정_2.0'!$D1</definedName>
+    <definedName name="today" localSheetId="1">TODAY()</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
-    <definedName name="today" localSheetId="1">TODAY()</definedName>
-    <definedName name="ㅁ1" localSheetId="0">'프로젝트 일정(v2.0)'!$B:$B</definedName>
+    <definedName name="개인별분배">BlankMacro1</definedName>
+    <definedName name="개인별분배_1">BlankMacro1</definedName>
+    <definedName name="개인별분배_4">BlankMacro1</definedName>
+    <definedName name="개인별분배_5">#NAME?</definedName>
+    <definedName name="개인별분배_6">BlankMacro1</definedName>
+    <definedName name="과장">BlankMacro1</definedName>
+    <definedName name="과장_6">BlankMacro1</definedName>
+    <definedName name="금호기타불량">'[2]금호 산업'!$AT$13</definedName>
+    <definedName name="금호기획">'[2]금호 산업'!$K$13</definedName>
+    <definedName name="금호기획량">'[2]금호 산업'!$B$13</definedName>
+    <definedName name="금호요척량">'[2]금호 산업'!$AA$13</definedName>
+    <definedName name="금호원불">'[2]금호 산업'!$AR$13</definedName>
+    <definedName name="금호정품입고">'[2]금호 산업'!$AP$13</definedName>
+    <definedName name="금호취불">'[2]금호 산업'!$AS$13</definedName>
+    <definedName name="기획">'[3]96 FW 기획_ 진행 현황'!$A$155,'[3]96 FW 기획_ 진행 현황'!$A$156,'[3]96 FW 기획_ 진행 현황'!$A$157,'[3]96 FW 기획_ 진행 현황'!$A$158,'[3]96 FW 기획_ 진행 현황'!$A$159,'[3]96 FW 기획_ 진행 현황'!$A$226,'[3]96 FW 기획_ 진행 현황'!$A$227,'[3]96 FW 기획_ 진행 현황'!$A$228,'[3]96 FW 기획_ 진행 현황'!$A$229,'[3]96 FW 기획_ 진행 현황'!$A$230,'[3]96 FW 기획_ 진행 현황'!$A$231,'[3]96 FW 기획_ 진행 현황'!$A$232,'[3]96 FW 기획_ 진행 현황'!$A$233,'[3]96 FW 기획_ 진행 현황'!$A$234,'[3]96 FW 기획_ 진행 현황'!$A$235</definedName>
+    <definedName name="기획량">'[3]96 FW 기획_ 진행 현황'!$E$155,'[3]96 FW 기획_ 진행 현황'!$E$156,'[3]96 FW 기획_ 진행 현황'!$E$157,'[3]96 FW 기획_ 진행 현황'!$E$158,'[3]96 FW 기획_ 진행 현황'!$E$159,'[3]96 FW 기획_ 진행 현황'!$E$226,'[3]96 FW 기획_ 진행 현황'!$E$227,'[3]96 FW 기획_ 진행 현황'!$E$228,'[3]96 FW 기획_ 진행 현황'!$E$229,'[3]96 FW 기획_ 진행 현황'!$E$230,'[3]96 FW 기획_ 진행 현황'!$E$231,'[3]96 FW 기획_ 진행 현황'!$E$232,'[3]96 FW 기획_ 진행 현황'!$E$233,'[3]96 FW 기획_ 진행 현황'!$E$234,'[3]96 FW 기획_ 진행 현황'!$E$235</definedName>
+    <definedName name="ㄴㅌ">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_1">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_4">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_5">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_6">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_1">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_4">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_5">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_6">BlankMacro1</definedName>
+    <definedName name="ㅁ1" localSheetId="0">'프로젝트 일정_2.0'!$B:$B</definedName>
     <definedName name="ㅁ1">'프로젝트 일정(원본)'!$B:$B</definedName>
+    <definedName name="ㅁ742">#REF!</definedName>
+    <definedName name="ㅁ84">#REF!</definedName>
+    <definedName name="목차">BlankMacro1</definedName>
+    <definedName name="목차_1">BlankMacro1</definedName>
+    <definedName name="목차_4">BlankMacro1</definedName>
+    <definedName name="목차_5">BlankMacro1</definedName>
+    <definedName name="목차_6">BlankMacro1</definedName>
+    <definedName name="보기월1">#REF!</definedName>
+    <definedName name="보기월10">#REF!</definedName>
+    <definedName name="보기월11">#REF!</definedName>
+    <definedName name="보기월12">#REF!</definedName>
+    <definedName name="보기월2">#REF!</definedName>
+    <definedName name="보기월3">#REF!</definedName>
+    <definedName name="보기월4">#REF!</definedName>
+    <definedName name="보기월5">#REF!</definedName>
+    <definedName name="보기월6">#REF!</definedName>
+    <definedName name="보기월7">#REF!</definedName>
+    <definedName name="보기월8">#REF!</definedName>
+    <definedName name="보기월9">#REF!</definedName>
+    <definedName name="부가출력" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="부록표지" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="새이름ㅇㅇㅇ">BlankMacro1</definedName>
+    <definedName name="새이름ㅇㅇㅇ_6">BlankMacro1</definedName>
+    <definedName name="ㅇ">BlankMacro1</definedName>
+    <definedName name="ㅇ_6">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_1">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_4">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_5">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_6">BlankMacro1</definedName>
+    <definedName name="요척량">'[3]96 FW 기획_ 진행 현황'!$V$155,'[3]96 FW 기획_ 진행 현황'!$V$156,'[3]96 FW 기획_ 진행 현황'!$V$157,'[3]96 FW 기획_ 진행 현황'!$V$158,'[3]96 FW 기획_ 진행 현황'!$V$159,'[3]96 FW 기획_ 진행 현황'!$V$226,'[3]96 FW 기획_ 진행 현황'!$V$227,'[3]96 FW 기획_ 진행 현황'!$V$228,'[3]96 FW 기획_ 진행 현황'!$V$229,'[3]96 FW 기획_ 진행 현황'!$V$230,'[3]96 FW 기획_ 진행 현황'!$V$231,'[3]96 FW 기획_ 진행 현황'!$V$232,'[3]96 FW 기획_ 진행 현황'!$V$233,'[3]96 FW 기획_ 진행 현황'!$V$234,'[3]96 FW 기획_ 진행 현황'!$V$235</definedName>
+    <definedName name="우진기타불량">'[2]우진 I_S'!$AT$24</definedName>
+    <definedName name="우진기획">'[2]우진 I_S'!$K$24</definedName>
+    <definedName name="우진기획량">'[2]우진 I_S'!$B$24</definedName>
+    <definedName name="우진요척량">'[2]우진 I_S'!$AA$24</definedName>
+    <definedName name="우진원불">'[2]우진 I_S'!$AR$24</definedName>
+    <definedName name="우진정품입고">'[2]우진 I_S'!$AP$24</definedName>
+    <definedName name="우진취불">'[2]우진 I_S'!$AS$24</definedName>
+    <definedName name="월1">#REF!</definedName>
+    <definedName name="월10">#REF!</definedName>
+    <definedName name="월11">#REF!</definedName>
+    <definedName name="월12">#REF!</definedName>
+    <definedName name="월2">#REF!</definedName>
+    <definedName name="월3">#REF!</definedName>
+    <definedName name="월4">#REF!</definedName>
+    <definedName name="월5">#REF!</definedName>
+    <definedName name="월6">#REF!</definedName>
+    <definedName name="월7">#REF!</definedName>
+    <definedName name="월8">#REF!</definedName>
+    <definedName name="월9">#REF!</definedName>
+    <definedName name="월전체">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="유통2팀">BlankMacro1</definedName>
+    <definedName name="유통2팀_1">BlankMacro1</definedName>
+    <definedName name="유통2팀_4">BlankMacro1</definedName>
+    <definedName name="유통2팀_5">BlankMacro1</definedName>
+    <definedName name="유통2팀_6">BlankMacro1</definedName>
+    <definedName name="의무">BlankMacro1</definedName>
+    <definedName name="장소1">#REF!</definedName>
+    <definedName name="장소10">#REF!</definedName>
+    <definedName name="장소11">#REF!</definedName>
+    <definedName name="장소12">#REF!</definedName>
+    <definedName name="장소2">#REF!</definedName>
+    <definedName name="장소3">#REF!</definedName>
+    <definedName name="장소4">#REF!</definedName>
+    <definedName name="장소5">#REF!</definedName>
+    <definedName name="장소6">#REF!</definedName>
+    <definedName name="장소7">#REF!</definedName>
+    <definedName name="장소8">#REF!</definedName>
+    <definedName name="장소9">#REF!</definedName>
+    <definedName name="장소전체">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="전사성과급규모">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_1">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_4">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_5">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_6">BlankMacro1</definedName>
+    <definedName name="정품">'[3]96 FW 기획_ 진행 현황'!$W$235,'[3]96 FW 기획_ 진행 현황'!$W$234,'[3]96 FW 기획_ 진행 현황'!$W$233,'[3]96 FW 기획_ 진행 현황'!$W$232,'[3]96 FW 기획_ 진행 현황'!$W$231,'[3]96 FW 기획_ 진행 현황'!$W$230,'[3]96 FW 기획_ 진행 현황'!$W$229,'[3]96 FW 기획_ 진행 현황'!$W$228,'[3]96 FW 기획_ 진행 현황'!$W$227,'[3]96 FW 기획_ 진행 현황'!$W$226,'[3]96 FW 기획_ 진행 현황'!$W$159,'[3]96 FW 기획_ 진행 현황'!$W$158,'[3]96 FW 기획_ 진행 현황'!$W$157,'[3]96 FW 기획_ 진행 현황'!$W$156,'[3]96 FW 기획_ 진행 현황'!$W$155</definedName>
+    <definedName name="제일기타불량">'[2]제일 합섬'!$AT$7</definedName>
+    <definedName name="제일기획">'[2]제일 합섬'!$K$7</definedName>
+    <definedName name="제일기획량">'[2]제일 합섬'!$B$7</definedName>
+    <definedName name="제일요척량">'[2]제일 합섬'!$AA$7</definedName>
+    <definedName name="제일원불">'[2]제일 합섬'!$AR$7</definedName>
+    <definedName name="제일정품입고">'[2]제일 합섬'!$AP$7</definedName>
+    <definedName name="제일취불">'[2]제일 합섬'!$AS$7</definedName>
+    <definedName name="조사값2" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="지부월전체">[4]지부전체!$L$1:$L$65536,[4]지부전체!$N$1:$N$65536,[4]지부전체!$P$1:$P$65536,[4]지부전체!$R$1:$R$65536,[4]지부전체!$T$1:$T$65536,[4]지부전체!$V$1:$V$65536,[4]지부전체!$X$1:$X$65536,[4]지부전체!$Z$1:$Z$65536,[4]지부전체!$AB$1:$AB$65536,[4]지부전체!$AD$1:$AD$65536,[4]지부전체!$AF$1:$AF$65536,[4]지부전체!$AH$1:$AH$65536</definedName>
+    <definedName name="지부장소전체">[4]지부전체!$M$1:$M$65536,[4]지부전체!$O$1:$O$65536,[4]지부전체!$Q$1:$Q$65536,[4]지부전체!$S$1:$S$65536,[4]지부전체!$U$1:$U$65536,[4]지부전체!$W$1:$W$65536,[4]지부전체!$Y$1:$Y$65536,[4]지부전체!$AA$1:$AA$65536,[4]지부전체!$AC$1:$AC$65536,[4]지부전체!$AE$1:$AE$65536,[4]지부전체!$AG$1:$AG$65536,[4]지부전체!$AI$1:$AI$65536</definedName>
+    <definedName name="진성기타불량">'[2]진성 실업'!$AT$11</definedName>
+    <definedName name="진성기획">'[2]진성 실업'!$K$11</definedName>
+    <definedName name="진성기획량">'[2]진성 실업'!$B$11</definedName>
+    <definedName name="진성요척량">'[2]진성 실업'!$AA$11</definedName>
+    <definedName name="진성원불">'[2]진성 실업'!$AR$11</definedName>
+    <definedName name="진성정품입고">'[2]진성 실업'!$AP$11</definedName>
+    <definedName name="진성취불">'[2]진성 실업'!$AS$11</definedName>
+    <definedName name="출력111" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="출력2" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="템플리트모듈1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_6">BlankMacro1</definedName>
+    <definedName name="틀고정">#REF!</definedName>
+    <definedName name="한">BlankMacro1</definedName>
+    <definedName name="한_1">BlankMacro1</definedName>
+    <definedName name="한_4">BlankMacro1</definedName>
+    <definedName name="한_5">BlankMacro1</definedName>
+    <definedName name="한_6">BlankMacro1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -592,16 +775,113 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>변경사항</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>DB 구조 설계</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>자격증 시험 벼락치기하느라고 과제 못 해서 밀림.
-DB 구조 설계 추가</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와이어프레임</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (변경됨)</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전</t>
+  </si>
+  <si>
+    <t>개정 일자</t>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.12</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.26</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>개정 내용 및 이유</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이어프레임 마감일, 기능 개발 마감일, 테스트 마감일  및 마일스톤을 6월 22일 마감일 기준으로 일정 변경
+(자격증 시험 벼락치기하느라고 과제 못 해서 밀림)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2. 기획 및 설계" 항목에 DB 구조 설계 일정 추가</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.01</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4.기능개발"항목 View 레이아웃 7개 -&gt; 8개로 수정</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>View 레이아웃 8개 (약 24시간 소요)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (변경됨)</t>
+    </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -609,14 +889,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="178" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="179" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="180" formatCode="d"/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,21 +1212,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -953,8 +1219,64 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1015,8 +1337,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1242,121 +1570,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FFD9D9D9"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1385,8 +1630,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1618,35 +1866,64 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="13" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="181" fontId="48" fillId="0" borderId="21" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="48" fillId="0" borderId="22" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="22" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="49" fillId="0" borderId="22" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="22" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1664,22 +1941,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
@@ -1692,9 +1964,54 @@
     <cellStyle name="제목 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 3" xfId="13" xr:uid="{9E632ABA-523A-4B2D-8EF4-9555FFA6F271}"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2140,9 +2457,43 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -2171,23 +2522,16 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2254,6 +2598,21 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="5"/>
@@ -2268,10 +2627,41 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2330,38 +2720,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -2379,35 +2737,6 @@
       <border>
         <left/>
         <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2433,26 +2762,12 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2481,7 +2796,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
@@ -2502,21 +2817,6 @@
       <border>
         <left/>
         <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2621,15 +2921,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="68"/>
-      <tableStyleElement type="headerRow" dxfId="67"/>
-      <tableStyleElement type="totalRow" dxfId="66"/>
-      <tableStyleElement type="firstColumn" dxfId="65"/>
-      <tableStyleElement type="lastColumn" dxfId="64"/>
-      <tableStyleElement type="firstRowStripe" dxfId="63"/>
-      <tableStyleElement type="secondRowStripe" dxfId="62"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="60"/>
+      <tableStyleElement type="wholeTable" dxfId="70"/>
+      <tableStyleElement type="headerRow" dxfId="69"/>
+      <tableStyleElement type="totalRow" dxfId="68"/>
+      <tableStyleElement type="firstColumn" dxfId="67"/>
+      <tableStyleElement type="lastColumn" dxfId="66"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="63"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="62"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2720,6 +3020,260 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974FC901-FB88-410C-BE3B-3A3D840CD59F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="400050" y="57150"/>
+          <a:ext cx="4924425" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>■</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>개정이력</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200" b="1" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="분석 (2)"/>
+      <sheetName val="Raw-data"/>
+      <sheetName val="Sw_pop"/>
+      <sheetName val="추가값"/>
+      <sheetName val="si"/>
+      <sheetName val="조사값"/>
+      <sheetName val="매출"/>
+      <sheetName val="수출입"/>
+      <sheetName val="분석"/>
+      <sheetName val="그래프"/>
+      <sheetName val="출력"/>
+      <sheetName val="연도별"/>
+      <sheetName val="2005월보값최종"/>
+      <sheetName val="2005월보값보정후"/>
+      <sheetName val="월보"/>
+      <sheetName val="연보"/>
+      <sheetName val="보정품목(2005월보)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="우진 I_S"/>
+      <sheetName val="금호 산업"/>
+      <sheetName val="제일 합섬"/>
+      <sheetName val="진성 실업"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="96 FW 기획_ 진행 현황"/>
+      <sheetName val="96 FW 기획, 진행 현황"/>
+      <sheetName val="가을"/>
+      <sheetName val="겨울"/>
+      <sheetName val="사계절"/>
+      <sheetName val="가을+겨울+사계절"/>
+      <sheetName val="완사입+핸드메이드"/>
+      <sheetName val="사입, 핸드 메이드 LIST"/>
+      <sheetName val="특판"/>
+      <sheetName val="업체별 그래프"/>
+      <sheetName val="복종별 비율(임가공)"/>
+      <sheetName val="업체별"/>
+      <sheetName val="임가공"/>
+      <sheetName val="매출"/>
+      <sheetName val="원가집계"/>
+      <sheetName val="원가집계 (2)"/>
+      <sheetName val="스타손A"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="지부전체"/>
+      <sheetName val="월별보기"/>
+      <sheetName val="부산"/>
+      <sheetName val="대구경북"/>
+      <sheetName val="인천"/>
+      <sheetName val="경기"/>
+      <sheetName val="강원"/>
+      <sheetName val="충북"/>
+      <sheetName val="대전충남"/>
+      <sheetName val="전북"/>
+      <sheetName val="광주전남"/>
+      <sheetName val="경남"/>
+      <sheetName val="울산"/>
+      <sheetName val="안산"/>
+      <sheetName val="구미"/>
+      <sheetName val="경기북부"/>
+      <sheetName val="2002년간일정표(지부)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2928,10 +3482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22"/>
+      <selection activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2948,7 +3502,7 @@
     <col min="63" max="63" width="44.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="55.05" customHeight="1" x14ac:dyDescent="1.45">
+    <row r="1" spans="1:64" ht="55.05" customHeight="1" x14ac:dyDescent="1.45">
       <c r="A1" s="7"/>
       <c r="B1" s="59" t="s">
         <v>8</v>
@@ -2957,60 +3511,60 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="103">
+      <c r="P1" s="100">
         <v>45789</v>
       </c>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-    </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="105">
+      <c r="P2" s="102">
         <v>1</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-    </row>
-    <row r="3" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+    </row>
+    <row r="3" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="16"/>
       <c r="C3" s="18"/>
@@ -3021,103 +3575,104 @@
       <c r="BH3"/>
       <c r="BI3"/>
       <c r="BJ3"/>
-    </row>
-    <row r="4" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK3"/>
+      <c r="BL3"/>
+    </row>
+    <row r="4" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="106">
+      <c r="H4" s="103">
         <f>H5</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95">
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104">
         <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95">
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104">
         <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95">
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104">
         <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95">
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104">
         <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95">
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104">
         <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="95">
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="111">
         <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
+      <c r="AY4" s="112"/>
+      <c r="AZ4" s="112"/>
+      <c r="BA4" s="112"/>
+      <c r="BB4" s="112"/>
+      <c r="BC4" s="112"/>
+      <c r="BD4" s="103"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
       <c r="BH4"/>
       <c r="BI4"/>
-      <c r="BJ4" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK4" s="94"/>
-    </row>
-    <row r="5" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97" t="s">
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+    </row>
+    <row r="5" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="108" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -3321,19 +3876,16 @@
       <c r="BG5"/>
       <c r="BH5"/>
       <c r="BI5"/>
-      <c r="BJ5" s="91">
-        <v>45803</v>
-      </c>
-      <c r="BK5" s="89" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+    </row>
+    <row r="6" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="105"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:BD6" si="2">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -3535,10 +4087,11 @@
       <c r="BG6"/>
       <c r="BH6"/>
       <c r="BI6"/>
-      <c r="BJ6" s="92"/>
-      <c r="BK6" s="90"/>
-    </row>
-    <row r="7" spans="1:63" s="17" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+    </row>
+    <row r="7" spans="1:64" s="17" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3604,10 +4157,11 @@
       <c r="BG7"/>
       <c r="BH7"/>
       <c r="BI7"/>
-      <c r="BJ7" s="83"/>
-      <c r="BK7" s="84"/>
-    </row>
-    <row r="8" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+    </row>
+    <row r="8" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="76" t="s">
         <v>34</v>
@@ -3674,10 +4228,11 @@
       <c r="BG8"/>
       <c r="BH8"/>
       <c r="BI8"/>
-      <c r="BJ8" s="83"/>
-      <c r="BK8" s="85"/>
-    </row>
-    <row r="9" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+    </row>
+    <row r="9" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="60" t="s">
         <v>10</v>
@@ -3752,10 +4307,11 @@
       <c r="BG9"/>
       <c r="BH9"/>
       <c r="BI9"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="85"/>
-    </row>
-    <row r="10" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+    </row>
+    <row r="10" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="61" t="s">
         <v>11</v>
@@ -3830,10 +4386,11 @@
       <c r="BG10"/>
       <c r="BH10"/>
       <c r="BI10"/>
-      <c r="BJ10" s="86"/>
-      <c r="BK10" s="87"/>
-    </row>
-    <row r="11" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+    </row>
+    <row r="11" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="61" t="s">
         <v>12</v>
@@ -3909,8 +4466,10 @@
       <c r="BH11"/>
       <c r="BI11"/>
       <c r="BJ11"/>
-    </row>
-    <row r="12" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BK11"/>
+      <c r="BL11"/>
+    </row>
+    <row r="12" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="77" t="s">
         <v>35</v>
@@ -3978,7 +4537,7 @@
       <c r="BI12"/>
       <c r="BJ12"/>
     </row>
-    <row r="13" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="63" t="s">
         <v>13</v>
@@ -4055,7 +4614,7 @@
       <c r="BI13"/>
       <c r="BJ13"/>
     </row>
-    <row r="14" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="62" t="s">
         <v>14</v>
@@ -4132,10 +4691,10 @@
       <c r="BI14"/>
       <c r="BJ14"/>
     </row>
-    <row r="15" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
-      <c r="B15" s="62" t="s">
-        <v>15</v>
+      <c r="B15" s="63" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="44">
         <v>1</v>
@@ -4159,9 +4718,7 @@
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="80" t="s">
-        <v>48</v>
-      </c>
+      <c r="N15" s="80"/>
       <c r="O15" s="80"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
@@ -4169,7 +4726,9 @@
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
+      <c r="V15" s="80" t="s">
+        <v>48</v>
+      </c>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
       <c r="Y15" s="36"/>
@@ -4211,13 +4770,13 @@
       <c r="BI15"/>
       <c r="BJ15"/>
     </row>
-    <row r="16" spans="1:63" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="64" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="45">
         <f>E15+1</f>
@@ -4290,11 +4849,11 @@
     </row>
     <row r="17" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
-      <c r="B17" s="88" t="s">
-        <v>51</v>
+      <c r="B17" s="83" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="45">
         <f>E16+1</f>
@@ -4437,15 +4996,15 @@
         <v>17</v>
       </c>
       <c r="C19" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="51">
-        <f>E17</f>
-        <v>45805</v>
+        <f>E17+1</f>
+        <v>45806</v>
       </c>
       <c r="E19" s="51">
         <f>D19+0</f>
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="4">
@@ -4514,15 +5073,15 @@
         <v>18</v>
       </c>
       <c r="C20" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="51">
         <f>E19</f>
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="E20" s="51">
         <f>D20+0</f>
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="4">
@@ -4591,15 +5150,15 @@
         <v>19</v>
       </c>
       <c r="C21" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="51">
         <f>E20</f>
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="E21" s="51">
         <f>D21+0</f>
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="4">
@@ -4668,15 +5227,15 @@
         <v>20</v>
       </c>
       <c r="C22" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="51">
         <f>D19+0</f>
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="E22" s="51">
         <f>D22+0</f>
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4">
@@ -4808,18 +5367,18 @@
     <row r="24" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="69" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C24" s="34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D24" s="35">
         <f>E22+1</f>
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="E24" s="35">
         <f>D24+6</f>
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="4"/>
@@ -4837,9 +5396,7 @@
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-      <c r="V24" s="80" t="s">
-        <v>48</v>
-      </c>
+      <c r="V24" s="80"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="36"/>
@@ -4889,11 +5446,11 @@
       <c r="C25" s="34"/>
       <c r="D25" s="35">
         <f>E24+1</f>
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="E25" s="35">
         <f>D25+3</f>
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="4"/>
@@ -4963,11 +5520,11 @@
       </c>
       <c r="D26" s="35">
         <f>E25+1</f>
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="E26" s="35">
         <f>D26+2</f>
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="4"/>
@@ -5037,11 +5594,11 @@
       </c>
       <c r="D27" s="35">
         <f>E26+1</f>
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="E27" s="35">
         <f>D27+1</f>
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="4"/>
@@ -5111,11 +5668,11 @@
       </c>
       <c r="D28" s="35">
         <f>E27+1</f>
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="E28" s="35">
         <f>D28+1</f>
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="4"/>
@@ -5185,11 +5742,11 @@
       </c>
       <c r="D29" s="35">
         <f t="shared" ref="D29:D30" si="4">E28+1</f>
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="E29" s="35">
         <f t="shared" ref="E29" si="5">D29+1</f>
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="4"/>
@@ -5259,16 +5816,16 @@
       </c>
       <c r="D30" s="35">
         <f t="shared" si="4"/>
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="E30" s="35">
-        <f>D30</f>
-        <v>45826</v>
+        <f>D30+1</f>
+        <v>45828</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
@@ -5298,9 +5855,7 @@
       <c r="AG30" s="36"/>
       <c r="AH30" s="36"/>
       <c r="AI30" s="36"/>
-      <c r="AJ30" s="80" t="s">
-        <v>48</v>
-      </c>
+      <c r="AJ30" s="80"/>
       <c r="AK30" s="36"/>
       <c r="AL30" s="36"/>
       <c r="AM30" s="36"/>
@@ -5311,7 +5866,9 @@
       <c r="AR30" s="36"/>
       <c r="AS30" s="36"/>
       <c r="AT30" s="36"/>
-      <c r="AU30" s="36"/>
+      <c r="AU30" s="80" t="s">
+        <v>39</v>
+      </c>
       <c r="AV30" s="36"/>
       <c r="AW30" s="36"/>
       <c r="AX30" s="36"/>
@@ -5407,11 +5964,11 @@
       </c>
       <c r="D32" s="45">
         <f>E30+1</f>
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="E32" s="45">
         <f>D32</f>
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="4">
@@ -5483,12 +6040,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="45">
-        <f>E32+1</f>
-        <v>45828</v>
+        <f>E32</f>
+        <v>45829</v>
       </c>
       <c r="E33" s="45">
         <f>D33</f>
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="4">
@@ -5560,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="45">
-        <f>E33+1</f>
+        <f>E33</f>
         <v>45829</v>
       </c>
       <c r="E34" s="45">
@@ -5706,12 +6263,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="51">
-        <f>E34+1</f>
-        <v>45830</v>
+        <f>E34</f>
+        <v>45829</v>
       </c>
       <c r="E36" s="51">
         <f>D36</f>
-        <v>45830</v>
+        <v>45829</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4">
@@ -5783,17 +6340,17 @@
         <v>0</v>
       </c>
       <c r="D37" s="51">
-        <f>E36+1</f>
-        <v>45831</v>
+        <f>E36</f>
+        <v>45829</v>
       </c>
       <c r="E37" s="51">
-        <f>D37+1</f>
-        <v>45832</v>
+        <f>D37</f>
+        <v>45829</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
@@ -5861,16 +6418,16 @@
       </c>
       <c r="D38" s="51">
         <f>E37</f>
-        <v>45832</v>
+        <v>45829</v>
       </c>
       <c r="E38" s="51">
-        <f>D38+1</f>
-        <v>45833</v>
+        <f>D38</f>
+        <v>45829</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
@@ -5907,14 +6464,14 @@
       <c r="AN38" s="36"/>
       <c r="AO38" s="36"/>
       <c r="AP38" s="36"/>
-      <c r="AQ38" s="80" t="s">
-        <v>39</v>
-      </c>
+      <c r="AQ38" s="80"/>
       <c r="AR38" s="36"/>
       <c r="AS38" s="36"/>
       <c r="AT38" s="36"/>
       <c r="AU38" s="36"/>
-      <c r="AV38" s="36"/>
+      <c r="AV38" s="80" t="s">
+        <v>48</v>
+      </c>
       <c r="AW38" s="36"/>
       <c r="AY38" s="36"/>
       <c r="AZ38" s="36"/>
@@ -6008,11 +6565,11 @@
       </c>
       <c r="D40" s="35">
         <f>E38+1</f>
-        <v>45834</v>
+        <v>45830</v>
       </c>
       <c r="E40" s="35">
-        <f>D40</f>
-        <v>45834</v>
+        <f t="shared" ref="E40:E45" si="6">D40</f>
+        <v>45830</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="4">
@@ -6060,7 +6617,9 @@
       <c r="AT40" s="36"/>
       <c r="AU40" s="36"/>
       <c r="AV40" s="36"/>
-      <c r="AW40" s="36"/>
+      <c r="AW40" s="80" t="s">
+        <v>39</v>
+      </c>
       <c r="AX40" s="36"/>
       <c r="AY40" s="36"/>
       <c r="AZ40" s="36"/>
@@ -6086,12 +6645,12 @@
         <v>0</v>
       </c>
       <c r="D41" s="38">
-        <f>E40+1</f>
-        <v>45835</v>
+        <f>E40</f>
+        <v>45830</v>
       </c>
       <c r="E41" s="38">
-        <f>D41</f>
-        <v>45835</v>
+        <f t="shared" si="6"/>
+        <v>45830</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="4">
@@ -6163,12 +6722,12 @@
         <v>0</v>
       </c>
       <c r="D42" s="38">
-        <f>E41+1</f>
-        <v>45836</v>
+        <f>E41</f>
+        <v>45830</v>
       </c>
       <c r="E42" s="38">
-        <f>D42</f>
-        <v>45836</v>
+        <f t="shared" si="6"/>
+        <v>45830</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="4">
@@ -6240,12 +6799,12 @@
         <v>0</v>
       </c>
       <c r="D43" s="38">
-        <f>E42+1</f>
-        <v>45837</v>
+        <f>E42</f>
+        <v>45830</v>
       </c>
       <c r="E43" s="38">
-        <f>D43</f>
-        <v>45837</v>
+        <f t="shared" si="6"/>
+        <v>45830</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4">
@@ -6317,12 +6876,12 @@
         <v>0</v>
       </c>
       <c r="D44" s="38">
-        <f t="shared" ref="D44:D45" si="6">E43</f>
-        <v>45837</v>
+        <f t="shared" ref="D44:D45" si="7">E43</f>
+        <v>45830</v>
       </c>
       <c r="E44" s="38">
-        <f>D44</f>
-        <v>45837</v>
+        <f t="shared" si="6"/>
+        <v>45830</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="4">
@@ -6394,17 +6953,17 @@
         <v>0</v>
       </c>
       <c r="D45" s="38">
+        <f t="shared" si="7"/>
+        <v>45830</v>
+      </c>
+      <c r="E45" s="38">
         <f t="shared" si="6"/>
-        <v>45837</v>
-      </c>
-      <c r="E45" s="38">
-        <f>D45+9</f>
-        <v>45846</v>
+        <v>45830</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
@@ -6445,9 +7004,6 @@
       <c r="AR45" s="36"/>
       <c r="AS45" s="36"/>
       <c r="AT45" s="36"/>
-      <c r="AU45" s="80" t="s">
-        <v>39</v>
-      </c>
       <c r="AV45" s="36"/>
       <c r="AW45" s="36"/>
       <c r="AX45" s="36"/>
@@ -6555,7 +7111,16 @@
       <c r="E49" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="16">
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="P1:Y1"/>
     <mergeCell ref="H2:N2"/>
@@ -6563,18 +7128,6 @@
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="C7:C47">
@@ -6592,138 +7145,116 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:K28">
-    <cfRule type="expression" dxfId="59" priority="19">
+    <cfRule type="expression" dxfId="61" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="19">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="20" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD17 H14:AW14 H15:U15 W15:AW15 H16:AW17">
+    <cfRule type="expression" dxfId="59" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="22">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:AW11 H45:AT45 AV45:AW45 H40:AW44">
+    <cfRule type="expression" dxfId="2" priority="24" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD17 H14:AW17">
-    <cfRule type="expression" dxfId="57" priority="22">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="23" stopIfTrue="1">
-      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:AW11">
-    <cfRule type="expression" dxfId="55" priority="24" stopIfTrue="1">
-      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:AW30 AX8:BD30 H4:AW11 P12:AW12 H12:M13 O13:AW13 AY38:BD38">
-    <cfRule type="expression" dxfId="54" priority="21">
+  <conditionalFormatting sqref="AX8:BD30 H4:AW11 P12:AW12 H12:M13 O13:AW13 H14:AW14 H15:U15 W15:AW15 AY38:BD38 H45:AT45 AV45:AW45 H16:AW44">
+    <cfRule type="expression" dxfId="1" priority="21">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:AW30 AX36:BD37 AY38:BD38">
-    <cfRule type="expression" dxfId="53" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="27" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:AW30 AY38:BD38 AX36:BD37">
-    <cfRule type="expression" dxfId="52" priority="26">
+    <cfRule type="expression" dxfId="56" priority="26">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:AW45">
-    <cfRule type="expression" dxfId="51" priority="14">
-      <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
+  <conditionalFormatting sqref="H36:AW38">
+    <cfRule type="expression" dxfId="55" priority="16">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:AW34">
-    <cfRule type="expression" dxfId="50" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:AW38">
-    <cfRule type="expression" dxfId="49" priority="16">
+  <conditionalFormatting sqref="H24:BD30">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="17" stopIfTrue="1">
-      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:AW45">
-    <cfRule type="expression" dxfId="47" priority="15" stopIfTrue="1">
-      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:BD11">
-    <cfRule type="expression" dxfId="46" priority="9">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:BD30">
-    <cfRule type="expression" dxfId="45" priority="7">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:BD34">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="51" priority="5">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:BD45">
-    <cfRule type="expression" dxfId="42" priority="2">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    <cfRule type="expression" dxfId="50" priority="6" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="expression" dxfId="41" priority="28">
+    <cfRule type="expression" dxfId="49" priority="28">
       <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU45">
-    <cfRule type="expression" dxfId="40" priority="29">
-      <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
+  <conditionalFormatting sqref="V15">
+    <cfRule type="expression" dxfId="48" priority="90" stopIfTrue="1">
+      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="30">
-      <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
+    <cfRule type="expression" dxfId="47" priority="92">
+      <formula>AND(TODAY()&gt;=N$5, TODAY()&lt;O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="31" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    <cfRule type="expression" dxfId="46" priority="89">
+      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BD6">
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="39" priority="13">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:BD11">
-    <cfRule type="expression" dxfId="36" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX19:BD30">
-    <cfRule type="expression" dxfId="35" priority="11">
+    <cfRule type="expression" dxfId="37" priority="12" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="11">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="12" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX31:BD37">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX32:BD34">
-    <cfRule type="expression" dxfId="32" priority="6" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AX39:BD45">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AV45:BD45 H9:BD11 H45:AT45 H40:BD44">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AX40:BD45">
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6805,28 +7336,28 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="103">
+      <c r="P1" s="100">
         <v>45789</v>
       </c>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
     </row>
     <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -6835,28 +7366,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="105">
+      <c r="P2" s="102">
         <v>1</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -6875,76 +7406,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="106">
+      <c r="H4" s="103">
         <f>H5</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95">
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104">
         <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95">
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104">
         <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95">
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104">
         <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95">
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104">
         <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95">
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104">
         <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="95">
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104">
         <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -6954,17 +7485,17 @@
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="108" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -7172,11 +7703,11 @@
       <c r="BK5"/>
     </row>
     <row r="6" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:AM6" si="6">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -10361,6 +10892,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="P2:Y2"/>
@@ -10372,11 +10908,6 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="AQ4:AW4"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="C7:C46">
@@ -10394,138 +10925,138 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:K27">
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD16 H14:AW16">
-    <cfRule type="expression" dxfId="27" priority="37">
+    <cfRule type="expression" dxfId="30" priority="37">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AW11">
-    <cfRule type="expression" dxfId="25" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="42" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:AW29 AX8:BD29 H4:AW11 P12:AW12 H12:M13 O13:AW13 AY37:BD37">
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AW29 AX35:BD36 AY37:BD37">
-    <cfRule type="expression" dxfId="23" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AW29 AY37:BD37 AX35:BD36">
-    <cfRule type="expression" dxfId="22" priority="71">
+    <cfRule type="expression" dxfId="25" priority="71">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:AW44">
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:AW33">
-    <cfRule type="expression" dxfId="20" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:AW37">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:AW44">
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BD11">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:BD29">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:BD33">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:BD44">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="expression" dxfId="11" priority="74">
+    <cfRule type="expression" dxfId="14" priority="74">
       <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU44">
-    <cfRule type="expression" dxfId="10" priority="76">
+    <cfRule type="expression" dxfId="13" priority="76">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="79">
+    <cfRule type="expression" dxfId="12" priority="79">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BD6">
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:BD11">
-    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX18:BD29">
-    <cfRule type="expression" dxfId="5" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX30:BD36">
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX31:BD33">
-    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX38:BD44">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX39:BD44">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10575,7 +11106,345 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108462EA-BD33-4692-8FAA-C85C2C9FCC4F}">
+  <dimension ref="B4:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.4375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.4375" style="85" customWidth="1"/>
+    <col min="2" max="2" width="4.25" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5625" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.9375" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6875" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.4375" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="86">
+        <v>1</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="89"/>
+    </row>
+    <row r="6" spans="2:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="90">
+        <v>2</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="93"/>
+    </row>
+    <row r="7" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="94"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="93"/>
+    </row>
+    <row r="8" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="93">
+        <v>2.1</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="93"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="94"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="93"/>
+    </row>
+    <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="94"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+    </row>
+    <row r="11" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="94"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="93"/>
+    </row>
+    <row r="12" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="94"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="93"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="94"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="93"/>
+    </row>
+    <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="94"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="93"/>
+    </row>
+    <row r="15" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="94"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="93"/>
+    </row>
+    <row r="16" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="94"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="93"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="94"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="93"/>
+    </row>
+    <row r="18" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="94"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="93"/>
+    </row>
+    <row r="19" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="94"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="93"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="94"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="93"/>
+    </row>
+    <row r="21" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="94"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="93"/>
+    </row>
+    <row r="22" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="94"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="93"/>
+    </row>
+    <row r="23" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="94"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="93"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="94"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="93"/>
+    </row>
+    <row r="25" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="93"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="93"/>
+    </row>
+    <row r="26" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="94"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="93"/>
+    </row>
+    <row r="27" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="94"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="93"/>
+    </row>
+    <row r="28" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="94"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="93"/>
+    </row>
+    <row r="29" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="94"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="93"/>
+    </row>
+    <row r="30" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="94"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="93"/>
+    </row>
+    <row r="31" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="94"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="93"/>
+    </row>
+    <row r="32" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="94"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="93"/>
+    </row>
+    <row r="33" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="94"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="93"/>
+    </row>
+    <row r="34" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="94"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="93"/>
+    </row>
+    <row r="35" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="94"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="93"/>
+    </row>
+    <row r="36" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="94"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="93"/>
+    </row>
+    <row r="37" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="94"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="93"/>
+    </row>
+    <row r="38" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="94"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="93"/>
+    </row>
+    <row r="39" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="94"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="93"/>
+    </row>
+    <row r="40" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="94"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="93"/>
+    </row>
+    <row r="41" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="94"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="93"/>
+    </row>
+    <row r="42" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="94"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="93"/>
+    </row>
+    <row r="43" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="94"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="93"/>
+    </row>
+    <row r="44" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="94"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="93"/>
+    </row>
+    <row r="45" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="94"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="93"/>
+    </row>
+    <row r="46" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="94"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="93"/>
+    </row>
+    <row r="47" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="94"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="93"/>
+    </row>
+    <row r="48" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="94"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="93"/>
+    </row>
+    <row r="49" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="94"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="93"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10593,15 +11462,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10917,6 +11777,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -10931,14 +11799,6 @@
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/프로젝트일정관리_간트차트.xlsx
+++ b/프로젝트일정관리_간트차트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916BEEC4-0CB0-4E43-9F2D-C89C3CBED7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F450E0C-1690-4DC4-9214-6D71684BC495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -882,6 +882,10 @@
       </rPr>
       <t xml:space="preserve"> (변경됨)</t>
     </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.09</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1911,6 +1915,9 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="22" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1928,6 +1935,12 @@
     <xf numFmtId="179" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1941,15 +1954,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -1967,51 +1971,7 @@
     <cellStyle name="표준 3" xfId="13" xr:uid="{9E632ABA-523A-4B2D-8EF4-9555FFA6F271}"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -2471,7 +2431,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
       <border>
@@ -2482,7 +2442,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -2520,38 +2480,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="5"/>
@@ -2566,35 +2494,18 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2627,30 +2538,16 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
         <bottom style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2762,12 +2659,26 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2796,7 +2707,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
@@ -2817,6 +2728,21 @@
       <border>
         <left/>
         <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2921,15 +2847,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="70"/>
-      <tableStyleElement type="headerRow" dxfId="69"/>
-      <tableStyleElement type="totalRow" dxfId="68"/>
-      <tableStyleElement type="firstColumn" dxfId="67"/>
-      <tableStyleElement type="lastColumn" dxfId="66"/>
-      <tableStyleElement type="firstRowStripe" dxfId="65"/>
-      <tableStyleElement type="secondRowStripe" dxfId="64"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="63"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="62"/>
+      <tableStyleElement type="wholeTable" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="totalRow" dxfId="62"/>
+      <tableStyleElement type="firstColumn" dxfId="61"/>
+      <tableStyleElement type="lastColumn" dxfId="60"/>
+      <tableStyleElement type="firstRowStripe" dxfId="59"/>
+      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="57"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="56"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3484,8 +3410,8 @@
   </sheetPr>
   <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BK13" sqref="BK13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BK24" sqref="BK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3511,28 +3437,28 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="100">
+      <c r="P1" s="101">
         <v>45789</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -3541,28 +3467,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="102">
+      <c r="P2" s="103">
         <v>1</v>
       </c>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -3582,76 +3508,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="103">
+      <c r="H4" s="104">
         <f>H5</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104">
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105">
         <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105">
         <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104">
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105">
         <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104">
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105">
         <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104">
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105">
         <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="111">
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="106">
         <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AY4" s="112"/>
-      <c r="AZ4" s="112"/>
-      <c r="BA4" s="112"/>
-      <c r="BB4" s="112"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="103"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="104"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -3662,17 +3588,17 @@
       <c r="BL4"/>
     </row>
     <row r="5" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="111" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -3881,11 +3807,11 @@
       <c r="BL5"/>
     </row>
     <row r="6" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="105"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:BD6" si="2">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -5370,7 +5296,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="34">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D24" s="35">
         <f>E22+1</f>
@@ -5443,7 +5369,9 @@
       <c r="B25" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="34">
+        <v>0</v>
+      </c>
       <c r="D25" s="35">
         <f>E24+1</f>
         <v>45814</v>
@@ -7145,116 +7073,116 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:K28">
-    <cfRule type="expression" dxfId="61" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="19">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="19">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD17 H14:AW14 H15:U15 W15:AW15 H16:AW17">
-    <cfRule type="expression" dxfId="59" priority="23" stopIfTrue="1">
-      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="53" priority="22">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:AW11 H45:AT45 AV45:AW45 H40:AW44">
-    <cfRule type="expression" dxfId="2" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX8:BD30 H4:AW11 P12:AW12 H12:M13 O13:AW13 H14:AW14 H15:U15 W15:AW15 AY38:BD38 H45:AT45 AV45:AW45 H16:AW44">
-    <cfRule type="expression" dxfId="1" priority="21">
+  <conditionalFormatting sqref="H9:AW11 H40:AW44 H45:AT45 AV45:AW45">
+    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:AW44 AX8:BD30 H4:AW11 P12:AW12 H12:M13 O13:AW13 H14:AW14 H15:U15 W15:AW15 AY38:BD38 H45:AT45 AV45:AW45">
+    <cfRule type="expression" dxfId="50" priority="21">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:AW30 AX36:BD37 AY38:BD38">
-    <cfRule type="expression" dxfId="57" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:AW30 AY38:BD38 AX36:BD37">
-    <cfRule type="expression" dxfId="56" priority="26">
+    <cfRule type="expression" dxfId="48" priority="26">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:AW38">
-    <cfRule type="expression" dxfId="55" priority="16">
+    <cfRule type="expression" dxfId="47" priority="16">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:BD30">
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:BD34">
-    <cfRule type="expression" dxfId="51" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H40:BD44 AV45:BD45 H9:BD11 H45:AT45">
+    <cfRule type="expression" dxfId="41" priority="9">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="expression" dxfId="49" priority="28">
+    <cfRule type="expression" dxfId="40" priority="28">
       <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="expression" dxfId="48" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="89">
+      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="90" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="92">
+    <cfRule type="expression" dxfId="37" priority="92">
       <formula>AND(TODAY()&gt;=N$5, TODAY()&lt;O$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="89">
-      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BD6">
-    <cfRule type="expression" dxfId="39" priority="13">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:BD11">
-    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX19:BD30">
-    <cfRule type="expression" dxfId="37" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="11">
+      <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="11">
-      <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX31:BD37">
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX39:BD45">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV45:BD45 H9:BD11 H45:AT45 H40:BD44">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AX40:BD45">
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7336,28 +7264,28 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="100">
+      <c r="P1" s="101">
         <v>45789</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
     </row>
     <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -7366,28 +7294,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="102">
+      <c r="P2" s="103">
         <v>1</v>
       </c>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -7406,76 +7334,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="103">
+      <c r="H4" s="104">
         <f>H5</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104">
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105">
         <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105">
         <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104">
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105">
         <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104">
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105">
         <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104">
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105">
         <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104">
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="105">
         <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="105"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -7485,17 +7413,17 @@
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="111" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -7703,11 +7631,11 @@
       <c r="BK5"/>
     </row>
     <row r="6" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="105"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:AM6" si="6">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -10925,138 +10853,138 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:K27">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD16 H14:AW16">
-    <cfRule type="expression" dxfId="30" priority="37">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AW11">
-    <cfRule type="expression" dxfId="28" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="42" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:AW29 AX8:BD29 H4:AW11 P12:AW12 H12:M13 O13:AW13 AY37:BD37">
-    <cfRule type="expression" dxfId="27" priority="36">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AW29 AX35:BD36 AY37:BD37">
-    <cfRule type="expression" dxfId="26" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AW29 AY37:BD37 AX35:BD36">
-    <cfRule type="expression" dxfId="25" priority="71">
+    <cfRule type="expression" dxfId="22" priority="71">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:AW44">
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:AW33">
-    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:AW37">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:AW44">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BD11">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:BD29">
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:BD33">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:BD44">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="expression" dxfId="14" priority="74">
+    <cfRule type="expression" dxfId="11" priority="74">
       <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU44">
-    <cfRule type="expression" dxfId="13" priority="76">
+    <cfRule type="expression" dxfId="10" priority="76">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="79">
+    <cfRule type="expression" dxfId="9" priority="79">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BD6">
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:BD11">
-    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX18:BD29">
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="5" priority="17">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX30:BD36">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX31:BD33">
-    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX38:BD44">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX39:BD44">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11177,14 +11105,18 @@
       <c r="C8" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="98" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="93"/>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="94"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="93">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>64</v>
+      </c>
       <c r="D9" s="95"/>
       <c r="E9" s="93"/>
     </row>

--- a/프로젝트일정관리_간트차트.xlsx
+++ b/프로젝트일정관리_간트차트.xlsx
@@ -8,28 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F450E0C-1690-4DC4-9214-6D71684BC495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507D1F7-06D4-4896-9105-291EB3AD449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="프로젝트 일정_2.0" sheetId="13" r:id="rId1"/>
-    <sheet name="프로젝트 일정(원본)" sheetId="11" r:id="rId2"/>
-    <sheet name="간트차트개정이력" sheetId="15" r:id="rId3"/>
+    <sheet name="프로젝트 일정_3.0" sheetId="13" r:id="rId1"/>
+    <sheet name="프로젝트 일정_2.0" sheetId="16" r:id="rId2"/>
+    <sheet name="프로젝트 일정(원본)" sheetId="11" r:id="rId3"/>
+    <sheet name="간트차트개정이력" sheetId="15" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="Display_Week" localSheetId="0">'프로젝트 일정_2.0'!$P$2</definedName>
+    <definedName name="Display_Week" localSheetId="1">'프로젝트 일정_2.0'!$P$2</definedName>
+    <definedName name="Display_Week" localSheetId="0">'프로젝트 일정_3.0'!$P$2</definedName>
     <definedName name="Display_Week">'프로젝트 일정(원본)'!$P$2</definedName>
     <definedName name="Excel_BuiltIn_Database">#REF!</definedName>
+    <definedName name="f" localSheetId="1">BlankMacro1</definedName>
     <definedName name="f">BlankMacro1</definedName>
     <definedName name="HTML_CodePage" hidden="1">949</definedName>
+    <definedName name="HTML_Control" localSheetId="1" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -44,25 +48,37 @@
     <definedName name="HTML_PathFile" hidden="1">"C:\My Documents\98월별동향조사\작업장\MyHTML.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"juyo9803"</definedName>
     <definedName name="Print_Title">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'프로젝트 일정(원본)'!$4:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'프로젝트 일정_2.0'!$4:$6</definedName>
-    <definedName name="Project_Start" localSheetId="0">'프로젝트 일정_2.0'!$P$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'프로젝트 일정(원본)'!$4:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'프로젝트 일정_2.0'!$4:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'프로젝트 일정_3.0'!$4:$6</definedName>
+    <definedName name="Project_Start" localSheetId="1">'프로젝트 일정_2.0'!$P$1</definedName>
+    <definedName name="Project_Start" localSheetId="0">'프로젝트 일정_3.0'!$P$1</definedName>
     <definedName name="Project_Start">'프로젝트 일정(원본)'!$P$1</definedName>
     <definedName name="Sw_pop">[1]Sw_pop!#REF!</definedName>
-    <definedName name="task_end" localSheetId="1">'프로젝트 일정(원본)'!$E1</definedName>
-    <definedName name="task_end" localSheetId="0">'프로젝트 일정_2.0'!$E1</definedName>
-    <definedName name="task_progress" localSheetId="1">'프로젝트 일정(원본)'!$C1</definedName>
-    <definedName name="task_progress" localSheetId="0">'프로젝트 일정_2.0'!$C1</definedName>
-    <definedName name="task_start" localSheetId="1">'프로젝트 일정(원본)'!$D1</definedName>
-    <definedName name="task_start" localSheetId="0">'프로젝트 일정_2.0'!$D1</definedName>
+    <definedName name="task_end" localSheetId="2">'프로젝트 일정(원본)'!$E1</definedName>
+    <definedName name="task_end" localSheetId="1">'프로젝트 일정_2.0'!$E1</definedName>
+    <definedName name="task_end" localSheetId="0">'프로젝트 일정_3.0'!$E1</definedName>
+    <definedName name="task_progress" localSheetId="2">'프로젝트 일정(원본)'!$C1</definedName>
+    <definedName name="task_progress" localSheetId="1">'프로젝트 일정_2.0'!$C1</definedName>
+    <definedName name="task_progress" localSheetId="0">'프로젝트 일정_3.0'!$C1</definedName>
+    <definedName name="task_start" localSheetId="2">'프로젝트 일정(원본)'!$D1</definedName>
+    <definedName name="task_start" localSheetId="1">'프로젝트 일정_2.0'!$D1</definedName>
+    <definedName name="task_start" localSheetId="0">'프로젝트 일정_3.0'!$D1</definedName>
+    <definedName name="today" localSheetId="2">TODAY()</definedName>
     <definedName name="today" localSheetId="1">TODAY()</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
+    <definedName name="개인별분배" localSheetId="1">BlankMacro1</definedName>
     <definedName name="개인별분배">BlankMacro1</definedName>
+    <definedName name="개인별분배_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="개인별분배_1">BlankMacro1</definedName>
+    <definedName name="개인별분배_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="개인별분배_4">BlankMacro1</definedName>
     <definedName name="개인별분배_5">#NAME?</definedName>
+    <definedName name="개인별분배_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="개인별분배_6">BlankMacro1</definedName>
+    <definedName name="과장" localSheetId="1">BlankMacro1</definedName>
     <definedName name="과장">BlankMacro1</definedName>
+    <definedName name="과장_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="과장_6">BlankMacro1</definedName>
     <definedName name="금호기타불량">'[2]금호 산업'!$AT$13</definedName>
     <definedName name="금호기획">'[2]금호 산업'!$K$13</definedName>
@@ -73,24 +89,40 @@
     <definedName name="금호취불">'[2]금호 산업'!$AS$13</definedName>
     <definedName name="기획">'[3]96 FW 기획_ 진행 현황'!$A$155,'[3]96 FW 기획_ 진행 현황'!$A$156,'[3]96 FW 기획_ 진행 현황'!$A$157,'[3]96 FW 기획_ 진행 현황'!$A$158,'[3]96 FW 기획_ 진행 현황'!$A$159,'[3]96 FW 기획_ 진행 현황'!$A$226,'[3]96 FW 기획_ 진행 현황'!$A$227,'[3]96 FW 기획_ 진행 현황'!$A$228,'[3]96 FW 기획_ 진행 현황'!$A$229,'[3]96 FW 기획_ 진행 현황'!$A$230,'[3]96 FW 기획_ 진행 현황'!$A$231,'[3]96 FW 기획_ 진행 현황'!$A$232,'[3]96 FW 기획_ 진행 현황'!$A$233,'[3]96 FW 기획_ 진행 현황'!$A$234,'[3]96 FW 기획_ 진행 현황'!$A$235</definedName>
     <definedName name="기획량">'[3]96 FW 기획_ 진행 현황'!$E$155,'[3]96 FW 기획_ 진행 현황'!$E$156,'[3]96 FW 기획_ 진행 현황'!$E$157,'[3]96 FW 기획_ 진행 현황'!$E$158,'[3]96 FW 기획_ 진행 현황'!$E$159,'[3]96 FW 기획_ 진행 현황'!$E$226,'[3]96 FW 기획_ 진행 현황'!$E$227,'[3]96 FW 기획_ 진행 현황'!$E$228,'[3]96 FW 기획_ 진행 현황'!$E$229,'[3]96 FW 기획_ 진행 현황'!$E$230,'[3]96 FW 기획_ 진행 현황'!$E$231,'[3]96 FW 기획_ 진행 현황'!$E$232,'[3]96 FW 기획_ 진행 현황'!$E$233,'[3]96 FW 기획_ 진행 현황'!$E$234,'[3]96 FW 기획_ 진행 현황'!$E$235</definedName>
+    <definedName name="ㄴㅌ" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄴㅌ">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_1">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_4">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_5">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_6">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ_1">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ_4">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ_5">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ_6">BlankMacro1</definedName>
-    <definedName name="ㅁ1" localSheetId="0">'프로젝트 일정_2.0'!$B:$B</definedName>
+    <definedName name="ㅁ1" localSheetId="1">'프로젝트 일정_2.0'!$B:$B</definedName>
+    <definedName name="ㅁ1" localSheetId="0">'프로젝트 일정_3.0'!$B:$B</definedName>
     <definedName name="ㅁ1">'프로젝트 일정(원본)'!$B:$B</definedName>
     <definedName name="ㅁ742">#REF!</definedName>
     <definedName name="ㅁ84">#REF!</definedName>
+    <definedName name="목차" localSheetId="1">BlankMacro1</definedName>
     <definedName name="목차">BlankMacro1</definedName>
+    <definedName name="목차_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="목차_1">BlankMacro1</definedName>
+    <definedName name="목차_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="목차_4">BlankMacro1</definedName>
+    <definedName name="목차_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="목차_5">BlankMacro1</definedName>
+    <definedName name="목차_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="목차_6">BlankMacro1</definedName>
     <definedName name="보기월1">#REF!</definedName>
     <definedName name="보기월10">#REF!</definedName>
@@ -104,16 +136,27 @@
     <definedName name="보기월7">#REF!</definedName>
     <definedName name="보기월8">#REF!</definedName>
     <definedName name="보기월9">#REF!</definedName>
+    <definedName name="부가출력" localSheetId="1" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="부가출력" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="부록표지" localSheetId="1" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="부록표지" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="새이름ㅇㅇㅇ" localSheetId="1">BlankMacro1</definedName>
     <definedName name="새이름ㅇㅇㅇ">BlankMacro1</definedName>
+    <definedName name="새이름ㅇㅇㅇ_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="새이름ㅇㅇㅇ_6">BlankMacro1</definedName>
+    <definedName name="ㅇ" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㅇ">BlankMacro1</definedName>
+    <definedName name="ㅇ_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㅇ_6">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㅇㄴ">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_1">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_4">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_5">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_6">BlankMacro1</definedName>
     <definedName name="요척량">'[3]96 FW 기획_ 진행 현황'!$V$155,'[3]96 FW 기획_ 진행 현황'!$V$156,'[3]96 FW 기획_ 진행 현황'!$V$157,'[3]96 FW 기획_ 진행 현황'!$V$158,'[3]96 FW 기획_ 진행 현황'!$V$159,'[3]96 FW 기획_ 진행 현황'!$V$226,'[3]96 FW 기획_ 진행 현황'!$V$227,'[3]96 FW 기획_ 진행 현황'!$V$228,'[3]96 FW 기획_ 진행 현황'!$V$229,'[3]96 FW 기획_ 진행 현황'!$V$230,'[3]96 FW 기획_ 진행 현황'!$V$231,'[3]96 FW 기획_ 진행 현황'!$V$232,'[3]96 FW 기획_ 진행 현황'!$V$233,'[3]96 FW 기획_ 진행 현황'!$V$234,'[3]96 FW 기획_ 진행 현황'!$V$235</definedName>
     <definedName name="우진기타불량">'[2]우진 I_S'!$AT$24</definedName>
@@ -136,11 +179,17 @@
     <definedName name="월8">#REF!</definedName>
     <definedName name="월9">#REF!</definedName>
     <definedName name="월전체">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="유통2팀" localSheetId="1">BlankMacro1</definedName>
     <definedName name="유통2팀">BlankMacro1</definedName>
+    <definedName name="유통2팀_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="유통2팀_1">BlankMacro1</definedName>
+    <definedName name="유통2팀_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="유통2팀_4">BlankMacro1</definedName>
+    <definedName name="유통2팀_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="유통2팀_5">BlankMacro1</definedName>
+    <definedName name="유통2팀_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="유통2팀_6">BlankMacro1</definedName>
+    <definedName name="의무" localSheetId="1">BlankMacro1</definedName>
     <definedName name="의무">BlankMacro1</definedName>
     <definedName name="장소1">#REF!</definedName>
     <definedName name="장소10">#REF!</definedName>
@@ -155,10 +204,15 @@
     <definedName name="장소8">#REF!</definedName>
     <definedName name="장소9">#REF!</definedName>
     <definedName name="장소전체">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="전사성과급규모" localSheetId="1">BlankMacro1</definedName>
     <definedName name="전사성과급규모">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="전사성과급규모_1">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="전사성과급규모_4">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="전사성과급규모_5">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="전사성과급규모_6">BlankMacro1</definedName>
     <definedName name="정품">'[3]96 FW 기획_ 진행 현황'!$W$235,'[3]96 FW 기획_ 진행 현황'!$W$234,'[3]96 FW 기획_ 진행 현황'!$W$233,'[3]96 FW 기획_ 진행 현황'!$W$232,'[3]96 FW 기획_ 진행 현황'!$W$231,'[3]96 FW 기획_ 진행 현황'!$W$230,'[3]96 FW 기획_ 진행 현황'!$W$229,'[3]96 FW 기획_ 진행 현황'!$W$228,'[3]96 FW 기획_ 진행 현황'!$W$227,'[3]96 FW 기획_ 진행 현황'!$W$226,'[3]96 FW 기획_ 진행 현황'!$W$159,'[3]96 FW 기획_ 진행 현황'!$W$158,'[3]96 FW 기획_ 진행 현황'!$W$157,'[3]96 FW 기획_ 진행 현황'!$W$156,'[3]96 FW 기획_ 진행 현황'!$W$155</definedName>
     <definedName name="제일기타불량">'[2]제일 합섬'!$AT$7</definedName>
@@ -168,6 +222,7 @@
     <definedName name="제일원불">'[2]제일 합섬'!$AR$7</definedName>
     <definedName name="제일정품입고">'[2]제일 합섬'!$AP$7</definedName>
     <definedName name="제일취불">'[2]제일 합섬'!$AS$7</definedName>
+    <definedName name="조사값2" localSheetId="1" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="조사값2" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="지부월전체">[4]지부전체!$L$1:$L$65536,[4]지부전체!$N$1:$N$65536,[4]지부전체!$P$1:$P$65536,[4]지부전체!$R$1:$R$65536,[4]지부전체!$T$1:$T$65536,[4]지부전체!$V$1:$V$65536,[4]지부전체!$X$1:$X$65536,[4]지부전체!$Z$1:$Z$65536,[4]지부전체!$AB$1:$AB$65536,[4]지부전체!$AD$1:$AD$65536,[4]지부전체!$AF$1:$AF$65536,[4]지부전체!$AH$1:$AH$65536</definedName>
     <definedName name="지부장소전체">[4]지부전체!$M$1:$M$65536,[4]지부전체!$O$1:$O$65536,[4]지부전체!$Q$1:$Q$65536,[4]지부전체!$S$1:$S$65536,[4]지부전체!$U$1:$U$65536,[4]지부전체!$W$1:$W$65536,[4]지부전체!$Y$1:$Y$65536,[4]지부전체!$AA$1:$AA$65536,[4]지부전체!$AC$1:$AC$65536,[4]지부전체!$AE$1:$AE$65536,[4]지부전체!$AG$1:$AG$65536,[4]지부전체!$AI$1:$AI$65536</definedName>
@@ -178,43 +233,80 @@
     <definedName name="진성원불">'[2]진성 실업'!$AR$11</definedName>
     <definedName name="진성정품입고">'[2]진성 실업'!$AP$11</definedName>
     <definedName name="진성취불">'[2]진성 실업'!$AS$11</definedName>
+    <definedName name="출력111" localSheetId="1" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="출력111" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="출력2" localSheetId="1" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="출력2" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="템플리트모듈1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈1_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈1_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈1_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈1_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈2">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈2_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈2_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈2_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈2_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈3">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈3_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈3_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈3_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈3_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈4_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈4_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈4_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈4_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈5_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈5_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈5_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈5_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈6_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈6_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈6_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="템플리트모듈6_6">BlankMacro1</definedName>
     <definedName name="틀고정">#REF!</definedName>
+    <definedName name="한" localSheetId="1">BlankMacro1</definedName>
     <definedName name="한">BlankMacro1</definedName>
+    <definedName name="한_1" localSheetId="1">BlankMacro1</definedName>
     <definedName name="한_1">BlankMacro1</definedName>
+    <definedName name="한_4" localSheetId="1">BlankMacro1</definedName>
     <definedName name="한_4">BlankMacro1</definedName>
+    <definedName name="한_5" localSheetId="1">BlankMacro1</definedName>
     <definedName name="한_5">BlankMacro1</definedName>
+    <definedName name="한_6" localSheetId="1">BlankMacro1</definedName>
     <definedName name="한_6">BlankMacro1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -238,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -888,6 +980,111 @@
     <t>2025.06.09</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
+  <si>
+    <t>등록된 화장품 편집 (요구사항 2개, 5시간)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>화장품 등록 (요구사항 3개, 7시간)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (변경됨)</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4.기능개발"항목 'View 레이아웃 8개' 마감일을 기존 6월 8일에서 6월 16일로 변경. 그 밑에 있는 기능 구현 완료 일자도 변경함(시험 공부 및 졸업작품이 더 급하기도 하고 기능 개발을 3일 안에 끝낼 수 있을 것 같아서 미룸)
+"4.기능개발"항목의 '화장품 등록 기능(요구사항 4개, 9.5시간)'을 '화장품 등록 기능(요구사항 3개, 7개)'로 변경. (요구사항 정의서가 변경됨)
+"4.기능개발"항목에 '등록된 화장품 편집 (요구사항 2개, 5시간)' 추가. (요구사항 정의서가 변경됨)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경됨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -901,7 +1098,7 @@
     <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,6 +1476,30 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1638,7 +1859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1918,20 +2139,6 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1939,6 +2146,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -1954,6 +2164,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -1971,7 +2195,371 @@
     <cellStyle name="표준 3" xfId="13" xr:uid="{9E632ABA-523A-4B2D-8EF4-9555FFA6F271}"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2847,15 +3435,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="64"/>
-      <tableStyleElement type="headerRow" dxfId="63"/>
-      <tableStyleElement type="totalRow" dxfId="62"/>
-      <tableStyleElement type="firstColumn" dxfId="61"/>
-      <tableStyleElement type="lastColumn" dxfId="60"/>
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="57"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="56"/>
+      <tableStyleElement type="wholeTable" dxfId="90"/>
+      <tableStyleElement type="headerRow" dxfId="89"/>
+      <tableStyleElement type="totalRow" dxfId="88"/>
+      <tableStyleElement type="firstColumn" dxfId="87"/>
+      <tableStyleElement type="lastColumn" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="83"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="82"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3408,10 +3996,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL49"/>
+  <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BK24" sqref="BK24"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BJ35" sqref="BJ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3437,28 +4025,28 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="101">
+      <c r="P1" s="110">
         <v>45789</v>
       </c>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -3467,28 +4055,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="103">
+      <c r="P2" s="112">
         <v>1</v>
       </c>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
     </row>
     <row r="3" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -3508,76 +4096,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="104">
+      <c r="H4" s="102">
         <f>H5</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99">
         <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105">
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99">
         <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105">
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99">
         <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105">
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99">
         <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105">
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99">
         <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="106">
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100">
         <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="107"/>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="104"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="102"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -3588,17 +4176,17 @@
       <c r="BL4"/>
     </row>
     <row r="5" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109" t="s">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="106" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -3807,11 +4395,11 @@
       <c r="BL5"/>
     </row>
     <row r="6" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="108"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:BD6" si="2">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -4097,7 +4685,7 @@
       <c r="E8" s="31"/>
       <c r="F8" s="9"/>
       <c r="G8" s="4" t="str">
-        <f t="shared" ref="G8:G47" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G8:G48" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H8" s="79"/>
@@ -5227,7 +5815,7 @@
     <row r="23" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="68" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="30"/>
@@ -5303,8 +5891,8 @@
         <v>45807</v>
       </c>
       <c r="E24" s="35">
-        <f>D24+6</f>
-        <v>45813</v>
+        <f>D24+17</f>
+        <v>45824</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="4"/>
@@ -5367,18 +5955,18 @@
     <row r="25" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="69" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C25" s="34">
         <v>0</v>
       </c>
       <c r="D25" s="35">
         <f>E24+1</f>
-        <v>45814</v>
+        <v>45825</v>
       </c>
       <c r="E25" s="35">
-        <f>D25+3</f>
-        <v>45817</v>
+        <f>D25+2</f>
+        <v>45827</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="4"/>
@@ -5448,11 +6036,11 @@
       </c>
       <c r="D26" s="35">
         <f>E25+1</f>
-        <v>45818</v>
+        <v>45828</v>
       </c>
       <c r="E26" s="35">
-        <f>D26+2</f>
-        <v>45820</v>
+        <f>D26+0</f>
+        <v>45828</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="4"/>
@@ -5514,19 +6102,19 @@
     </row>
     <row r="27" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
-      <c r="B27" s="69" t="s">
-        <v>43</v>
+      <c r="B27" s="113" t="s">
+        <v>65</v>
       </c>
       <c r="C27" s="34">
         <v>0</v>
       </c>
       <c r="D27" s="35">
-        <f>E26+1</f>
-        <v>45821</v>
+        <f>E26</f>
+        <v>45828</v>
       </c>
       <c r="E27" s="35">
-        <f>D27+1</f>
-        <v>45822</v>
+        <f>D27</f>
+        <v>45828</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="4"/>
@@ -5589,18 +6177,18 @@
     <row r="28" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="B28" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="34">
         <v>0</v>
       </c>
       <c r="D28" s="35">
-        <f>E27+1</f>
-        <v>45823</v>
+        <f>E26</f>
+        <v>45828</v>
       </c>
       <c r="E28" s="35">
-        <f>D28+1</f>
-        <v>45824</v>
+        <f>D28</f>
+        <v>45828</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="4"/>
@@ -5662,6 +6250,3907 @@
     </row>
     <row r="29" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
+      <c r="B29" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="34">
+        <v>0</v>
+      </c>
+      <c r="D29" s="35">
+        <f>E28+1</f>
+        <v>45829</v>
+      </c>
+      <c r="E29" s="35">
+        <f>D29</f>
+        <v>45829</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="36"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="36"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+    </row>
+    <row r="30" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="6"/>
+      <c r="B30" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="34">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <f>E29</f>
+        <v>45829</v>
+      </c>
+      <c r="E30" s="35">
+        <f>D30</f>
+        <v>45829</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="36"/>
+      <c r="AU30" s="36"/>
+      <c r="AV30" s="36"/>
+      <c r="AW30" s="36"/>
+      <c r="AX30" s="36"/>
+      <c r="AY30" s="36"/>
+      <c r="AZ30" s="36"/>
+      <c r="BA30" s="36"/>
+      <c r="BB30" s="36"/>
+      <c r="BC30" s="36"/>
+      <c r="BD30" s="36"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+    </row>
+    <row r="31" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="6"/>
+      <c r="B31" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="34">
+        <v>0</v>
+      </c>
+      <c r="D31" s="35">
+        <f>E30</f>
+        <v>45829</v>
+      </c>
+      <c r="E31" s="35">
+        <f>D31</f>
+        <v>45829</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="36"/>
+      <c r="AQ31" s="36"/>
+      <c r="AR31" s="36"/>
+      <c r="AS31" s="36"/>
+      <c r="AT31" s="36"/>
+      <c r="AU31" s="80"/>
+      <c r="AV31" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW31" s="36"/>
+      <c r="AX31" s="36"/>
+      <c r="AY31" s="36"/>
+      <c r="AZ31" s="36"/>
+      <c r="BA31" s="36"/>
+      <c r="BB31" s="36"/>
+      <c r="BC31" s="36"/>
+      <c r="BD31" s="36"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+    </row>
+    <row r="32" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="43"/>
+      <c r="AY32" s="43"/>
+      <c r="AZ32" s="43"/>
+      <c r="BA32" s="43"/>
+      <c r="BB32" s="43"/>
+      <c r="BC32" s="43"/>
+      <c r="BD32" s="43"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32"/>
+      <c r="BH32"/>
+      <c r="BI32"/>
+      <c r="BJ32"/>
+    </row>
+    <row r="33" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="6"/>
+      <c r="B33" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="44">
+        <v>0</v>
+      </c>
+      <c r="D33" s="45">
+        <f>E31</f>
+        <v>45829</v>
+      </c>
+      <c r="E33" s="45">
+        <f>D33</f>
+        <v>45829</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="36"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="36"/>
+      <c r="AR33" s="36"/>
+      <c r="AS33" s="36"/>
+      <c r="AT33" s="36"/>
+      <c r="AU33" s="36"/>
+      <c r="AV33" s="36"/>
+      <c r="AW33" s="36"/>
+      <c r="AX33" s="36"/>
+      <c r="AY33" s="36"/>
+      <c r="AZ33" s="36"/>
+      <c r="BA33" s="36"/>
+      <c r="BB33" s="36"/>
+      <c r="BC33" s="36"/>
+      <c r="BD33" s="36"/>
+      <c r="BE33"/>
+      <c r="BF33"/>
+      <c r="BG33"/>
+      <c r="BH33"/>
+      <c r="BI33"/>
+      <c r="BJ33"/>
+    </row>
+    <row r="34" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="6"/>
+      <c r="B34" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="44">
+        <v>0</v>
+      </c>
+      <c r="D34" s="45">
+        <f>E33</f>
+        <v>45829</v>
+      </c>
+      <c r="E34" s="45">
+        <f>D34</f>
+        <v>45829</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="36"/>
+      <c r="BB34" s="36"/>
+      <c r="BC34" s="36"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+    </row>
+    <row r="35" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="44">
+        <v>0</v>
+      </c>
+      <c r="D35" s="45">
+        <f>E34</f>
+        <v>45829</v>
+      </c>
+      <c r="E35" s="45">
+        <f>D35</f>
+        <v>45829</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
+      <c r="AT35" s="36"/>
+      <c r="AU35" s="36"/>
+      <c r="AV35" s="36"/>
+      <c r="AW35" s="36"/>
+      <c r="AX35" s="36"/>
+      <c r="AY35" s="36"/>
+      <c r="AZ35" s="36"/>
+      <c r="BA35" s="36"/>
+      <c r="BB35" s="36"/>
+      <c r="BC35" s="36"/>
+      <c r="BD35" s="36"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+    </row>
+    <row r="36" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="6"/>
+      <c r="B36" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="49"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="49"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
+      <c r="BB36" s="49"/>
+      <c r="BC36" s="49"/>
+      <c r="BD36" s="49"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36"/>
+      <c r="BJ36"/>
+    </row>
+    <row r="37" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="6"/>
+      <c r="B37" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="50">
+        <v>0</v>
+      </c>
+      <c r="D37" s="51">
+        <f>E35</f>
+        <v>45829</v>
+      </c>
+      <c r="E37" s="51">
+        <f>D37</f>
+        <v>45829</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="36"/>
+      <c r="AU37" s="36"/>
+      <c r="AV37" s="36"/>
+      <c r="AW37" s="36"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="36"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="36"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+      <c r="BG37"/>
+      <c r="BH37"/>
+      <c r="BI37"/>
+      <c r="BJ37"/>
+    </row>
+    <row r="38" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="50">
+        <v>0</v>
+      </c>
+      <c r="D38" s="51">
+        <f>E37</f>
+        <v>45829</v>
+      </c>
+      <c r="E38" s="51">
+        <f>D38</f>
+        <v>45829</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
+      <c r="AT38" s="36"/>
+      <c r="AU38" s="36"/>
+      <c r="AV38" s="36"/>
+      <c r="AW38" s="36"/>
+      <c r="AX38" s="36"/>
+      <c r="AY38" s="36"/>
+      <c r="AZ38" s="36"/>
+      <c r="BA38" s="36"/>
+      <c r="BB38" s="36"/>
+      <c r="BC38" s="36"/>
+      <c r="BD38" s="36"/>
+      <c r="BE38"/>
+      <c r="BF38"/>
+      <c r="BG38"/>
+      <c r="BH38"/>
+      <c r="BI38"/>
+      <c r="BJ38"/>
+    </row>
+    <row r="39" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="6"/>
+      <c r="B39" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="50">
+        <v>0</v>
+      </c>
+      <c r="D39" s="51">
+        <f>E38</f>
+        <v>45829</v>
+      </c>
+      <c r="E39" s="51">
+        <f>D39</f>
+        <v>45829</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="36"/>
+      <c r="AM39" s="36"/>
+      <c r="AN39" s="36"/>
+      <c r="AO39" s="36"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="80"/>
+      <c r="AR39" s="36"/>
+      <c r="AS39" s="36"/>
+      <c r="AT39" s="36"/>
+      <c r="AU39" s="36"/>
+      <c r="AV39" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW39" s="36"/>
+      <c r="AY39" s="36"/>
+      <c r="AZ39" s="36"/>
+      <c r="BA39" s="36"/>
+      <c r="BB39" s="36"/>
+      <c r="BC39" s="36"/>
+      <c r="BD39" s="36"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+    </row>
+    <row r="40" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="6"/>
+      <c r="B40" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="32"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+      <c r="AV40" s="32"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="32"/>
+      <c r="AY40" s="32"/>
+      <c r="AZ40" s="32"/>
+      <c r="BA40" s="32"/>
+      <c r="BB40" s="32"/>
+      <c r="BC40" s="32"/>
+      <c r="BD40" s="32"/>
+      <c r="BE40"/>
+      <c r="BF40"/>
+      <c r="BG40"/>
+      <c r="BH40"/>
+      <c r="BI40"/>
+      <c r="BJ40"/>
+    </row>
+    <row r="41" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="34">
+        <v>0</v>
+      </c>
+      <c r="D41" s="35">
+        <f>E39+1</f>
+        <v>45830</v>
+      </c>
+      <c r="E41" s="35">
+        <f t="shared" ref="E41:E46" si="4">D41</f>
+        <v>45830</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="36"/>
+      <c r="AM41" s="36"/>
+      <c r="AN41" s="36"/>
+      <c r="AO41" s="36"/>
+      <c r="AP41" s="36"/>
+      <c r="AQ41" s="36"/>
+      <c r="AR41" s="36"/>
+      <c r="AS41" s="36"/>
+      <c r="AT41" s="36"/>
+      <c r="AU41" s="36"/>
+      <c r="AV41" s="36"/>
+      <c r="AW41" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX41" s="36"/>
+      <c r="AY41" s="36"/>
+      <c r="AZ41" s="36"/>
+      <c r="BA41" s="36"/>
+      <c r="BB41" s="36"/>
+      <c r="BC41" s="36"/>
+      <c r="BD41" s="36"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+    </row>
+    <row r="42" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A42" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="37">
+        <v>0</v>
+      </c>
+      <c r="D42" s="38">
+        <f>E41</f>
+        <v>45830</v>
+      </c>
+      <c r="E42" s="38">
+        <f t="shared" si="4"/>
+        <v>45830</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="36"/>
+      <c r="AN42" s="36"/>
+      <c r="AO42" s="36"/>
+      <c r="AP42" s="36"/>
+      <c r="AQ42" s="36"/>
+      <c r="AR42" s="36"/>
+      <c r="AS42" s="36"/>
+      <c r="AT42" s="36"/>
+      <c r="AU42" s="36"/>
+      <c r="AV42" s="36"/>
+      <c r="AW42" s="36"/>
+      <c r="AX42" s="36"/>
+      <c r="AY42" s="36"/>
+      <c r="AZ42" s="36"/>
+      <c r="BA42" s="36"/>
+      <c r="BB42" s="36"/>
+      <c r="BC42" s="36"/>
+      <c r="BD42" s="36"/>
+      <c r="BE42"/>
+      <c r="BF42"/>
+      <c r="BG42"/>
+      <c r="BH42"/>
+      <c r="BI42"/>
+      <c r="BJ42"/>
+    </row>
+    <row r="43" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="37">
+        <v>0</v>
+      </c>
+      <c r="D43" s="38">
+        <f>E42</f>
+        <v>45830</v>
+      </c>
+      <c r="E43" s="38">
+        <f t="shared" si="4"/>
+        <v>45830</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="36"/>
+      <c r="AN43" s="36"/>
+      <c r="AO43" s="36"/>
+      <c r="AP43" s="36"/>
+      <c r="AQ43" s="36"/>
+      <c r="AR43" s="36"/>
+      <c r="AS43" s="36"/>
+      <c r="AT43" s="36"/>
+      <c r="AU43" s="36"/>
+      <c r="AV43" s="36"/>
+      <c r="AW43" s="36"/>
+      <c r="AX43" s="36"/>
+      <c r="AY43" s="36"/>
+      <c r="AZ43" s="36"/>
+      <c r="BA43" s="36"/>
+      <c r="BB43" s="36"/>
+      <c r="BC43" s="36"/>
+      <c r="BD43" s="36"/>
+      <c r="BE43"/>
+      <c r="BF43"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
+    </row>
+    <row r="44" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="34">
+        <v>0</v>
+      </c>
+      <c r="D44" s="38">
+        <f>E43</f>
+        <v>45830</v>
+      </c>
+      <c r="E44" s="38">
+        <f t="shared" si="4"/>
+        <v>45830</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
+      <c r="AK44" s="36"/>
+      <c r="AL44" s="36"/>
+      <c r="AM44" s="36"/>
+      <c r="AN44" s="36"/>
+      <c r="AO44" s="36"/>
+      <c r="AP44" s="36"/>
+      <c r="AQ44" s="36"/>
+      <c r="AR44" s="36"/>
+      <c r="AS44" s="36"/>
+      <c r="AT44" s="36"/>
+      <c r="AU44" s="36"/>
+      <c r="AV44" s="36"/>
+      <c r="AW44" s="36"/>
+      <c r="AX44" s="36"/>
+      <c r="AY44" s="36"/>
+      <c r="AZ44" s="36"/>
+      <c r="BA44" s="36"/>
+      <c r="BB44" s="36"/>
+      <c r="BC44" s="36"/>
+      <c r="BD44" s="36"/>
+      <c r="BE44"/>
+      <c r="BF44"/>
+      <c r="BG44"/>
+      <c r="BH44"/>
+      <c r="BI44"/>
+      <c r="BJ44"/>
+    </row>
+    <row r="45" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="6"/>
+      <c r="B45" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="37">
+        <v>0</v>
+      </c>
+      <c r="D45" s="38">
+        <f t="shared" ref="D45:D46" si="5">E44</f>
+        <v>45830</v>
+      </c>
+      <c r="E45" s="38">
+        <f t="shared" si="4"/>
+        <v>45830</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="36"/>
+      <c r="AJ45" s="36"/>
+      <c r="AK45" s="36"/>
+      <c r="AL45" s="36"/>
+      <c r="AM45" s="36"/>
+      <c r="AN45" s="36"/>
+      <c r="AO45" s="36"/>
+      <c r="AP45" s="36"/>
+      <c r="AQ45" s="36"/>
+      <c r="AR45" s="36"/>
+      <c r="AS45" s="36"/>
+      <c r="AT45" s="36"/>
+      <c r="AU45" s="36"/>
+      <c r="AV45" s="36"/>
+      <c r="AW45" s="36"/>
+      <c r="AX45" s="36"/>
+      <c r="AY45" s="36"/>
+      <c r="AZ45" s="36"/>
+      <c r="BA45" s="36"/>
+      <c r="BB45" s="36"/>
+      <c r="BC45" s="36"/>
+      <c r="BD45" s="36"/>
+      <c r="BE45"/>
+      <c r="BF45"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+    </row>
+    <row r="46" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="6"/>
+      <c r="B46" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="37">
+        <v>0</v>
+      </c>
+      <c r="D46" s="38">
+        <f t="shared" si="5"/>
+        <v>45830</v>
+      </c>
+      <c r="E46" s="38">
+        <f t="shared" si="4"/>
+        <v>45830</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="36"/>
+      <c r="AK46" s="36"/>
+      <c r="AL46" s="36"/>
+      <c r="AM46" s="36"/>
+      <c r="AN46" s="36"/>
+      <c r="AO46" s="36"/>
+      <c r="AP46" s="36"/>
+      <c r="AQ46" s="36"/>
+      <c r="AR46" s="36"/>
+      <c r="AS46" s="36"/>
+      <c r="AT46" s="36"/>
+      <c r="AV46" s="36"/>
+      <c r="AW46" s="36"/>
+      <c r="AX46" s="36"/>
+      <c r="AY46" s="36"/>
+      <c r="AZ46" s="36"/>
+      <c r="BA46" s="36"/>
+      <c r="BB46" s="36"/>
+      <c r="BC46" s="36"/>
+      <c r="BD46" s="36"/>
+      <c r="BE46"/>
+      <c r="BF46"/>
+      <c r="BG46"/>
+      <c r="BH46"/>
+      <c r="BI46"/>
+      <c r="BJ46"/>
+    </row>
+    <row r="47" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6"/>
+      <c r="B47"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="4"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+    </row>
+    <row r="48" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="58"/>
+      <c r="AH48" s="58"/>
+      <c r="AI48" s="58"/>
+      <c r="AJ48" s="58"/>
+      <c r="AK48" s="58"/>
+      <c r="AL48" s="58"/>
+      <c r="AM48" s="58"/>
+      <c r="AN48" s="58"/>
+      <c r="AO48" s="58"/>
+      <c r="AP48" s="58"/>
+      <c r="AQ48" s="58"/>
+      <c r="AR48" s="58"/>
+      <c r="AS48" s="58"/>
+      <c r="AT48" s="58"/>
+      <c r="AU48" s="58"/>
+      <c r="AV48" s="58"/>
+      <c r="AW48" s="58"/>
+      <c r="AX48" s="58"/>
+      <c r="AY48" s="58"/>
+      <c r="AZ48" s="58"/>
+      <c r="BA48" s="58"/>
+      <c r="BB48" s="58"/>
+      <c r="BC48" s="58"/>
+      <c r="BD48" s="58"/>
+      <c r="BE48"/>
+      <c r="BF48"/>
+      <c r="BG48"/>
+      <c r="BH48"/>
+      <c r="BI48"/>
+      <c r="BJ48"/>
+    </row>
+    <row r="49" spans="5:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="5:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="P2:Y2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <conditionalFormatting sqref="C7:C48">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B48D017E-D034-476A-A705-6D694DBC7826}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:K29">
+    <cfRule type="expression" dxfId="81" priority="19">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD17 H14:AW14 H15:U15 W15:AW15 H16:AW17">
+    <cfRule type="expression" dxfId="79" priority="22">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:AW11 H41:AW45 H46:AT46 AV46:AW46">
+    <cfRule type="expression" dxfId="77" priority="24" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:AW45 AX8:BD31 H4:AW11 P12:AW12 H12:M13 O13:AW13 H14:AW14 H15:U15 W15:AW15 AY39:BD39 H46:AT46 AV46:AW46">
+    <cfRule type="expression" dxfId="76" priority="21">
+      <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:AW31 AX37:BD38 AY39:BD39">
+    <cfRule type="expression" dxfId="75" priority="27" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:AW31 AY39:BD39 AX37:BD38">
+    <cfRule type="expression" dxfId="74" priority="26">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:AW39">
+    <cfRule type="expression" dxfId="73" priority="16">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:BD31">
+    <cfRule type="expression" dxfId="71" priority="7">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:BD35">
+    <cfRule type="expression" dxfId="69" priority="5">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="6" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:BD45 AV46:BD46 H9:BD11 H46:AT46">
+    <cfRule type="expression" dxfId="67" priority="9">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N13">
+    <cfRule type="expression" dxfId="66" priority="28">
+      <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15">
+    <cfRule type="expression" dxfId="65" priority="89">
+      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="90" stopIfTrue="1">
+      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="92">
+      <formula>AND(TODAY()&gt;=N$5, TODAY()&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX4:BD6">
+    <cfRule type="expression" dxfId="62" priority="13">
+      <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX9:BD11">
+    <cfRule type="expression" dxfId="61" priority="10" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX19:BD31">
+    <cfRule type="expression" dxfId="60" priority="11">
+      <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="12" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX32:BD38">
+    <cfRule type="expression" dxfId="58" priority="4">
+      <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX40:BD46">
+    <cfRule type="expression" dxfId="57" priority="1">
+      <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX41:BD46">
+    <cfRule type="expression" dxfId="56" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A48" xr:uid="{120E8D11-D308-4487-9B74-2CCFB88E612D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A18" xr:uid="{EA5FC299-A4C3-475D-A2AA-B35967F58308}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A12" xr:uid="{7D471A29-A11E-4076-8B28-08C079B8D18F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{D93EA667-029A-4AB3-B688-EA7C67B32250}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{7E214E01-4AD5-427C-8335-AF149800B872}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8" xr:uid="{1DE55573-61CB-48BF-B67E-DE8337BDB39A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{246BB061-6A8F-4D2B-86D6-628981BC4EC5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{79E47429-13B6-4A99-B59C-9903965A8D07}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{BB963AF2-E0D6-415F-BCDD-BCE47BFFBBB4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{D1DF53D7-7D7C-4E39-845B-948B0669DC7B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{AA0E632E-E003-436E-BB5C-553D8BB90F6E}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="P2" xr:uid="{9A55594E-33C4-4789-8EAF-A3B7F6E763CC}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B48D017E-D034-476A-A705-6D694DBC7826}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C7:C48</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D974E2D2-D86B-459C-9CBC-CD968F4DAC36}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BL49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BK13" sqref="BK13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.6875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.3125" customWidth="1"/>
+    <col min="3" max="3" width="10.6875" customWidth="1"/>
+    <col min="4" max="4" width="10.6875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6875" customWidth="1"/>
+    <col min="6" max="6" width="2.6875" customWidth="1"/>
+    <col min="7" max="7" width="6" hidden="1" customWidth="1"/>
+    <col min="8" max="61" width="2.6875" customWidth="1"/>
+    <col min="62" max="62" width="10.875" customWidth="1"/>
+    <col min="63" max="63" width="44.0625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" ht="55.05" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="A1" s="7"/>
+      <c r="B1" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="110">
+        <v>45789</v>
+      </c>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="H2" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="112">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+    </row>
+    <row r="3" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+    </row>
+    <row r="4" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="H4" s="102">
+        <f>H5</f>
+        <v>45789</v>
+      </c>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99">
+        <f>O5</f>
+        <v>45796</v>
+      </c>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99">
+        <f>V5</f>
+        <v>45803</v>
+      </c>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99">
+        <f>AC5</f>
+        <v>45810</v>
+      </c>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99">
+        <f>AJ5</f>
+        <v>45817</v>
+      </c>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99">
+        <f>AQ5</f>
+        <v>45824</v>
+      </c>
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100">
+        <f>AX5</f>
+        <v>45831</v>
+      </c>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+    </row>
+    <row r="5" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="22">
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>45789</v>
+      </c>
+      <c r="I5" s="22">
+        <f>H5+1</f>
+        <v>45790</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" ref="J5:AW5" si="0">I5+1</f>
+        <v>45791</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="0"/>
+        <v>45792</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
+        <v>45794</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" si="0"/>
+        <v>45795</v>
+      </c>
+      <c r="O5" s="24">
+        <f>N5+1</f>
+        <v>45796</v>
+      </c>
+      <c r="P5" s="22">
+        <f>O5+1</f>
+        <v>45797</v>
+      </c>
+      <c r="Q5" s="22">
+        <f t="shared" si="0"/>
+        <v>45798</v>
+      </c>
+      <c r="R5" s="22">
+        <f t="shared" si="0"/>
+        <v>45799</v>
+      </c>
+      <c r="S5" s="22">
+        <f t="shared" si="0"/>
+        <v>45800</v>
+      </c>
+      <c r="T5" s="22">
+        <f t="shared" si="0"/>
+        <v>45801</v>
+      </c>
+      <c r="U5" s="23">
+        <f t="shared" si="0"/>
+        <v>45802</v>
+      </c>
+      <c r="V5" s="24">
+        <f>U5+1</f>
+        <v>45803</v>
+      </c>
+      <c r="W5" s="22">
+        <f>V5+1</f>
+        <v>45804</v>
+      </c>
+      <c r="X5" s="22">
+        <f t="shared" si="0"/>
+        <v>45805</v>
+      </c>
+      <c r="Y5" s="22">
+        <f t="shared" si="0"/>
+        <v>45806</v>
+      </c>
+      <c r="Z5" s="22">
+        <f t="shared" si="0"/>
+        <v>45807</v>
+      </c>
+      <c r="AA5" s="22">
+        <f t="shared" si="0"/>
+        <v>45808</v>
+      </c>
+      <c r="AB5" s="23">
+        <f t="shared" si="0"/>
+        <v>45809</v>
+      </c>
+      <c r="AC5" s="24">
+        <f>AB5+1</f>
+        <v>45810</v>
+      </c>
+      <c r="AD5" s="22">
+        <f>AC5+1</f>
+        <v>45811</v>
+      </c>
+      <c r="AE5" s="22">
+        <f t="shared" si="0"/>
+        <v>45812</v>
+      </c>
+      <c r="AF5" s="22">
+        <f t="shared" si="0"/>
+        <v>45813</v>
+      </c>
+      <c r="AG5" s="22">
+        <f t="shared" si="0"/>
+        <v>45814</v>
+      </c>
+      <c r="AH5" s="22">
+        <f t="shared" si="0"/>
+        <v>45815</v>
+      </c>
+      <c r="AI5" s="23">
+        <f t="shared" si="0"/>
+        <v>45816</v>
+      </c>
+      <c r="AJ5" s="24">
+        <f>AI5+1</f>
+        <v>45817</v>
+      </c>
+      <c r="AK5" s="22">
+        <f>AJ5+1</f>
+        <v>45818</v>
+      </c>
+      <c r="AL5" s="22">
+        <f t="shared" si="0"/>
+        <v>45819</v>
+      </c>
+      <c r="AM5" s="22">
+        <f t="shared" si="0"/>
+        <v>45820</v>
+      </c>
+      <c r="AN5" s="22">
+        <f t="shared" si="0"/>
+        <v>45821</v>
+      </c>
+      <c r="AO5" s="22">
+        <f t="shared" si="0"/>
+        <v>45822</v>
+      </c>
+      <c r="AP5" s="23">
+        <f t="shared" si="0"/>
+        <v>45823</v>
+      </c>
+      <c r="AQ5" s="24">
+        <f>AP5+1</f>
+        <v>45824</v>
+      </c>
+      <c r="AR5" s="22">
+        <f>AQ5+1</f>
+        <v>45825</v>
+      </c>
+      <c r="AS5" s="22">
+        <f t="shared" si="0"/>
+        <v>45826</v>
+      </c>
+      <c r="AT5" s="22">
+        <f t="shared" si="0"/>
+        <v>45827</v>
+      </c>
+      <c r="AU5" s="22">
+        <f t="shared" si="0"/>
+        <v>45828</v>
+      </c>
+      <c r="AV5" s="22">
+        <f t="shared" si="0"/>
+        <v>45829</v>
+      </c>
+      <c r="AW5" s="23">
+        <f t="shared" si="0"/>
+        <v>45830</v>
+      </c>
+      <c r="AX5" s="24">
+        <f>AW5+1</f>
+        <v>45831</v>
+      </c>
+      <c r="AY5" s="22">
+        <f>AX5+1</f>
+        <v>45832</v>
+      </c>
+      <c r="AZ5" s="22">
+        <f t="shared" ref="AZ5:BD5" si="1">AY5+1</f>
+        <v>45833</v>
+      </c>
+      <c r="BA5" s="22">
+        <f t="shared" si="1"/>
+        <v>45834</v>
+      </c>
+      <c r="BB5" s="22">
+        <f t="shared" si="1"/>
+        <v>45835</v>
+      </c>
+      <c r="BC5" s="22">
+        <f t="shared" si="1"/>
+        <v>45836</v>
+      </c>
+      <c r="BD5" s="23">
+        <f t="shared" si="1"/>
+        <v>45837</v>
+      </c>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+    </row>
+    <row r="6" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="H6" s="25" t="str">
+        <f t="shared" ref="H6:BD6" si="2">LEFT(TEXT(H5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="I6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="J6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="K6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="L6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="M6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="N6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="O6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="P6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="Q6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="R6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="S6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="T6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="U6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="V6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="W6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="X6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="Y6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="Z6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AA6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AB6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AC6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="AD6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AE6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AF6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AG6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AH6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AI6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AJ6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="AK6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AL6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AM6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AN6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AO6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AP6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AQ6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="AR6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AS6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AT6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AU6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="AV6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AW6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="AX6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="AY6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="AZ6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="BA6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="BB6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="BC6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="BD6" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+    </row>
+    <row r="7" spans="1:64" s="17" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="17" t="str">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+    </row>
+    <row r="8" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="4" t="str">
+        <f t="shared" ref="G8:G47" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="32"/>
+      <c r="BD8" s="32"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+    </row>
+    <row r="9" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="34">
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <f>Project_Start</f>
+        <v>45789</v>
+      </c>
+      <c r="E9" s="35">
+        <f>D9+0</f>
+        <v>45789</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36"/>
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+    </row>
+    <row r="10" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <f>E9</f>
+        <v>45789</v>
+      </c>
+      <c r="E10" s="38">
+        <f>D10+0</f>
+        <v>45789</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="36"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="36"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+    </row>
+    <row r="11" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <f>E10</f>
+        <v>45789</v>
+      </c>
+      <c r="E11" s="38">
+        <f>D11+0</f>
+        <v>45789</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+    </row>
+    <row r="12" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="79"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="43"/>
+      <c r="AY12" s="43"/>
+      <c r="AZ12" s="43"/>
+      <c r="BA12" s="43"/>
+      <c r="BB12" s="43"/>
+      <c r="BC12" s="43"/>
+      <c r="BD12" s="43"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+    </row>
+    <row r="13" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1</v>
+      </c>
+      <c r="D13" s="45">
+        <f>E11</f>
+        <v>45789</v>
+      </c>
+      <c r="E13" s="45">
+        <f>D13+1</f>
+        <v>45790</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="36"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="36"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+    </row>
+    <row r="14" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1</v>
+      </c>
+      <c r="D14" s="45">
+        <f>E13+1</f>
+        <v>45791</v>
+      </c>
+      <c r="E14" s="45">
+        <f>D14+1</f>
+        <v>45792</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
+      <c r="AZ14" s="36"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+    </row>
+    <row r="15" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="45">
+        <f>E14+1</f>
+        <v>45793</v>
+      </c>
+      <c r="E15" s="45">
+        <f>D15+10</f>
+        <v>45803</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="36"/>
+      <c r="BA15" s="36"/>
+      <c r="BB15" s="36"/>
+      <c r="BC15" s="36"/>
+      <c r="BD15" s="36"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+    </row>
+    <row r="16" spans="1:64" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="44">
+        <v>1</v>
+      </c>
+      <c r="D16" s="45">
+        <f>E15+1</f>
+        <v>45804</v>
+      </c>
+      <c r="E16" s="45">
+        <f>D16+0</f>
+        <v>45804</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+    </row>
+    <row r="17" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="D17" s="45">
+        <f>E16+1</f>
+        <v>45805</v>
+      </c>
+      <c r="E17" s="45">
+        <f>D17+0</f>
+        <v>45805</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="49"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="49"/>
+      <c r="AZ17" s="49"/>
+      <c r="BA17" s="49"/>
+      <c r="BB17" s="49"/>
+      <c r="BC17" s="49"/>
+      <c r="BD17" s="49"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+    </row>
+    <row r="18" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="49"/>
+      <c r="BA18" s="49"/>
+      <c r="BB18" s="49"/>
+      <c r="BC18" s="49"/>
+      <c r="BD18" s="49"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+    </row>
+    <row r="19" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="50">
+        <v>1</v>
+      </c>
+      <c r="D19" s="51">
+        <f>E17+1</f>
+        <v>45806</v>
+      </c>
+      <c r="E19" s="51">
+        <f>D19+0</f>
+        <v>45806</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36"/>
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+    </row>
+    <row r="20" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="50">
+        <v>1</v>
+      </c>
+      <c r="D20" s="51">
+        <f>E19</f>
+        <v>45806</v>
+      </c>
+      <c r="E20" s="51">
+        <f>D20+0</f>
+        <v>45806</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="36"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+    </row>
+    <row r="21" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="50">
+        <v>1</v>
+      </c>
+      <c r="D21" s="51">
+        <f>E20</f>
+        <v>45806</v>
+      </c>
+      <c r="E21" s="51">
+        <f>D21+0</f>
+        <v>45806</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+    </row>
+    <row r="22" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="50">
+        <v>1</v>
+      </c>
+      <c r="D22" s="51">
+        <f>D19+0</f>
+        <v>45806</v>
+      </c>
+      <c r="E22" s="51">
+        <f>D22+0</f>
+        <v>45806</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="36"/>
+      <c r="AX22" s="36"/>
+      <c r="AY22" s="36"/>
+      <c r="AZ22" s="36"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="36"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+    </row>
+    <row r="23" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+    </row>
+    <row r="24" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="35">
+        <f>E22+1</f>
+        <v>45807</v>
+      </c>
+      <c r="E24" s="35">
+        <f>D24+6</f>
+        <v>45813</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="36"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="36"/>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="36"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="36"/>
+      <c r="BC24" s="36"/>
+      <c r="BD24" s="36"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+    </row>
+    <row r="25" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35">
+        <f>E24+1</f>
+        <v>45814</v>
+      </c>
+      <c r="E25" s="35">
+        <f>D25+3</f>
+        <v>45817</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="36"/>
+      <c r="AU25" s="36"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="36"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="36"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="36"/>
+      <c r="BC25" s="36"/>
+      <c r="BD25" s="36"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+    </row>
+    <row r="26" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="34">
+        <v>0</v>
+      </c>
+      <c r="D26" s="35">
+        <f>E25+1</f>
+        <v>45818</v>
+      </c>
+      <c r="E26" s="35">
+        <f>D26+2</f>
+        <v>45820</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="36"/>
+      <c r="AS26" s="36"/>
+      <c r="AT26" s="36"/>
+      <c r="AU26" s="36"/>
+      <c r="AV26" s="36"/>
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="36"/>
+      <c r="AY26" s="36"/>
+      <c r="AZ26" s="36"/>
+      <c r="BA26" s="36"/>
+      <c r="BB26" s="36"/>
+      <c r="BC26" s="36"/>
+      <c r="BD26" s="36"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+    </row>
+    <row r="27" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="35">
+        <f>E26+1</f>
+        <v>45821</v>
+      </c>
+      <c r="E27" s="35">
+        <f>D27+1</f>
+        <v>45822</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="36"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+    </row>
+    <row r="28" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="6"/>
+      <c r="B28" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0</v>
+      </c>
+      <c r="D28" s="35">
+        <f>E27+1</f>
+        <v>45823</v>
+      </c>
+      <c r="E28" s="35">
+        <f>D28+1</f>
+        <v>45824</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+    </row>
+    <row r="29" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="6"/>
       <c r="B29" s="73" t="s">
         <v>45</v>
       </c>
@@ -7059,7 +11548,7 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="C7:C47">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7067,140 +11556,140 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B48D017E-D034-476A-A705-6D694DBC7826}</x14:id>
+          <x14:id>{F745CC50-50B3-4FF5-BA91-A161D9F3294F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:K28">
-    <cfRule type="expression" dxfId="55" priority="19">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="16" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD17 H14:AW14 H15:U15 W15:AW15 H16:AW17">
-    <cfRule type="expression" dxfId="53" priority="22">
+    <cfRule type="expression" dxfId="23" priority="18">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AW11 H40:AW44 H45:AT45 AV45:AW45">
-    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:AW44 AX8:BD30 H4:AW11 P12:AW12 H12:M13 O13:AW13 H14:AW14 H15:U15 W15:AW15 AY38:BD38 H45:AT45 AV45:AW45">
-    <cfRule type="expression" dxfId="50" priority="21">
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:AW30 AX36:BD37 AY38:BD38">
-    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:AW30 AY38:BD38 AX36:BD37">
-    <cfRule type="expression" dxfId="48" priority="26">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:AW38">
-    <cfRule type="expression" dxfId="47" priority="16">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:BD30">
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:BD34">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:BD44 AV45:BD45 H9:BD11 H45:AT45">
-    <cfRule type="expression" dxfId="41" priority="9">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="expression" dxfId="40" priority="28">
+    <cfRule type="expression" dxfId="10" priority="24">
       <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="expression" dxfId="39" priority="89">
+    <cfRule type="expression" dxfId="9" priority="25">
       <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="92">
+    <cfRule type="expression" dxfId="7" priority="27">
       <formula>AND(TODAY()&gt;=N$5, TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BD6">
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:BD11">
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX19:BD30">
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX31:BD37">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX39:BD45">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX40:BD45">
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A47" xr:uid="{120E8D11-D308-4487-9B74-2CCFB88E612D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A18" xr:uid="{EA5FC299-A4C3-475D-A2AA-B35967F58308}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A12" xr:uid="{7D471A29-A11E-4076-8B28-08C079B8D18F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{D93EA667-029A-4AB3-B688-EA7C67B32250}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{7E214E01-4AD5-427C-8335-AF149800B872}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8" xr:uid="{1DE55573-61CB-48BF-B67E-DE8337BDB39A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{246BB061-6A8F-4D2B-86D6-628981BC4EC5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{79E47429-13B6-4A99-B59C-9903965A8D07}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{BB963AF2-E0D6-415F-BCDD-BCE47BFFBBB4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{D1DF53D7-7D7C-4E39-845B-948B0669DC7B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{AA0E632E-E003-436E-BB5C-553D8BB90F6E}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="P2" xr:uid="{9A55594E-33C4-4789-8EAF-A3B7F6E763CC}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="P2" xr:uid="{4472913F-701D-4F1B-8763-1C4645684567}">
       <formula1>1</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{A07A6081-F11E-4C61-9FA8-F5652ED02F64}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{BFFB6794-4997-4FBD-984E-D4A4D3C50740}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{8D5BDA4F-8019-4AA0-A0BF-7B90BC1700F0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{4FCA2809-9959-4F14-ADF0-39E85839ACF5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{8C9B0F15-3D99-4D25-901D-081E853C9C7E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8" xr:uid="{D4650256-3A96-4025-ABE9-0B7D35B3FFFA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{01EBC22D-3EB8-424A-9303-428F37500E11}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{226FFCFF-6CD7-4373-8F62-EB15F5EE01C7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A12" xr:uid="{BDF4DCC4-4E13-4A8C-B2F5-D1AE45BE9FC2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A18" xr:uid="{CFB2E780-A1A9-4F04-8035-DAF93C0F6620}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A47" xr:uid="{CE784E68-FC7F-4D32-9CED-7C57405A98B4}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -7212,7 +11701,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B48D017E-D034-476A-A705-6D694DBC7826}">
+          <x14:cfRule type="dataBar" id="{F745CC50-50B3-4FF5-BA91-A161D9F3294F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7232,7 +11721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -7264,28 +11753,28 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="101">
+      <c r="P1" s="110">
         <v>45789</v>
       </c>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
     </row>
     <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -7294,28 +11783,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="103">
+      <c r="P2" s="112">
         <v>1</v>
       </c>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
     </row>
     <row r="3" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -7334,76 +11823,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="104">
+      <c r="H4" s="102">
         <f>H5</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99">
         <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105">
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99">
         <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105">
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99">
         <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105">
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99">
         <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105">
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99">
         <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="105">
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="99">
         <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="105"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -7413,17 +11902,17 @@
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109" t="s">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="106" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -7631,11 +12120,11 @@
       <c r="BK5"/>
     </row>
     <row r="6" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="108"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:AM6" si="6">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -10820,11 +15309,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="P2:Y2"/>
@@ -10836,6 +15320,11 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="AQ4:AW4"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="C7:C46">
@@ -10853,138 +15342,138 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:K27">
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="55" priority="34">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD16 H14:AW16">
-    <cfRule type="expression" dxfId="27" priority="37">
+    <cfRule type="expression" dxfId="53" priority="37">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AW11">
-    <cfRule type="expression" dxfId="25" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="42" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:AW29 AX8:BD29 H4:AW11 P12:AW12 H12:M13 O13:AW13 AY37:BD37">
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="50" priority="36">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AW29 AX35:BD36 AY37:BD37">
-    <cfRule type="expression" dxfId="23" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AW29 AY37:BD37 AX35:BD36">
-    <cfRule type="expression" dxfId="22" priority="71">
+    <cfRule type="expression" dxfId="48" priority="71">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:AW44">
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="47" priority="20">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:AW33">
-    <cfRule type="expression" dxfId="20" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:AW37">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:AW44">
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BD11">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="42" priority="15">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:BD29">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="41" priority="13">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:BD33">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="39" priority="11">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:BD44">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="expression" dxfId="11" priority="74">
+    <cfRule type="expression" dxfId="37" priority="74">
       <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU44">
-    <cfRule type="expression" dxfId="10" priority="76">
+    <cfRule type="expression" dxfId="36" priority="76">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="79">
+    <cfRule type="expression" dxfId="35" priority="79">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BD6">
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="33" priority="19">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:BD11">
-    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="16" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX18:BD29">
-    <cfRule type="expression" dxfId="5" priority="17">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="18" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX30:BD36">
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX31:BD33">
-    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX38:BD44">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX39:BD44">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11034,12 +15523,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108462EA-BD33-4692-8FAA-C85C2C9FCC4F}">
   <dimension ref="B4:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.4375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11110,14 +15599,16 @@
       </c>
       <c r="E8" s="93"/>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="93">
-        <v>2.2000000000000002</v>
+    <row r="9" spans="2:5" ht="105.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="90">
+        <v>3</v>
       </c>
       <c r="C9" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="95" t="s">
+        <v>67</v>
+      </c>
       <c r="E9" s="93"/>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -11377,26 +15868,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11708,6 +16179,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
@@ -11717,25 +16208,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11756,6 +16228,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/프로젝트일정관리_간트차트.xlsx
+++ b/프로젝트일정관리_간트차트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507D1F7-06D4-4896-9105-291EB3AD449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE61BA-ADE2-45B9-B389-644CD089B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 일정_3.0" sheetId="13" r:id="rId1"/>
@@ -2139,6 +2139,9 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2175,9 +2178,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -2196,370 +2196,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="91">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2858,6 +2494,370 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -3998,8 +3998,8 @@
   </sheetPr>
   <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BJ35" sqref="BJ35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BK41" sqref="BK41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4025,28 +4025,28 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="110">
+      <c r="P1" s="111">
         <v>45789</v>
       </c>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -4055,28 +4055,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="112">
+      <c r="P2" s="113">
         <v>1</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
     </row>
     <row r="3" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -4096,76 +4096,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="102">
+      <c r="H4" s="103">
         <f>H5</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99">
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100">
         <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99">
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100">
         <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99">
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100">
         <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99">
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100">
         <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99">
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100">
         <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100">
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="101">
         <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="102"/>
+      <c r="AY4" s="102"/>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="103"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -4176,17 +4176,17 @@
       <c r="BL4"/>
     </row>
     <row r="5" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="107" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -4395,11 +4395,11 @@
       <c r="BL5"/>
     </row>
     <row r="6" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="103"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:BD6" si="2">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -5884,7 +5884,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D24" s="35">
         <f>E22+1</f>
@@ -5958,7 +5958,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="35">
         <f>E24+1</f>
@@ -6032,7 +6032,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="35">
         <f>E25+1</f>
@@ -6102,11 +6102,11 @@
     </row>
     <row r="27" spans="1:62" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="99" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="35">
         <f>E26</f>
@@ -6180,7 +6180,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="35">
         <f>E26</f>
@@ -6254,7 +6254,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="35">
         <f>E28+1</f>
@@ -6328,7 +6328,7 @@
         <v>45</v>
       </c>
       <c r="C30" s="34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="35">
         <f>E29</f>
@@ -6402,7 +6402,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="35">
         <f>E30</f>
@@ -7928,28 +7928,28 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="110">
+      <c r="P1" s="111">
         <v>45789</v>
       </c>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -7958,28 +7958,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="112">
+      <c r="P2" s="113">
         <v>1</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
     </row>
     <row r="3" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -7999,76 +7999,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="102">
+      <c r="H4" s="103">
         <f>H5</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99">
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100">
         <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99">
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100">
         <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99">
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100">
         <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99">
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100">
         <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99">
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100">
         <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100">
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="101">
         <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="102"/>
+      <c r="AY4" s="102"/>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="103"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -8079,17 +8079,17 @@
       <c r="BL4"/>
     </row>
     <row r="5" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="107" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -8298,11 +8298,11 @@
       <c r="BL5"/>
     </row>
     <row r="6" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="103"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:BD6" si="2">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -11562,116 +11562,116 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:K28">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="55" priority="15">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="16" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD17 H14:AW14 H15:U15 W15:AW15 H16:AW17">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="53" priority="18">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AW11 H40:AW44 H45:AT45 AV45:AW45">
-    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:AW44 AX8:BD30 H4:AW11 P12:AW12 H12:M13 O13:AW13 H14:AW14 H15:U15 W15:AW15 AY38:BD38 H45:AT45 AV45:AW45">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="50" priority="17">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:AW30 AX36:BD37 AY38:BD38">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:AW30 AY38:BD38 AX36:BD37">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="48" priority="22">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:AW38">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="47" priority="13">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:BD30">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="45" priority="6">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:BD34">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:BD44 AV45:BD45 H9:BD11 H45:AT45">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="41" priority="8">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="expression" dxfId="10" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="expression" dxfId="9" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="27">
+    <cfRule type="expression" dxfId="37" priority="27">
       <formula>AND(TODAY()&gt;=N$5, TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BD6">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="36" priority="12">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:BD11">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX19:BD30">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="34" priority="10">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX31:BD37">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX39:BD45">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX40:BD45">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11728,7 +11728,7 @@
   </sheetPr>
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="BR17" sqref="BR17"/>
     </sheetView>
   </sheetViews>
@@ -11753,28 +11753,28 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="110">
+      <c r="P1" s="111">
         <v>45789</v>
       </c>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
     </row>
     <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="82" t="s">
@@ -11783,28 +11783,28 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="112">
+      <c r="P2" s="113">
         <v>1</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
     </row>
     <row r="3" spans="1:63" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -11823,76 +11823,76 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="D4" s="21"/>
-      <c r="H4" s="102">
+      <c r="H4" s="103">
         <f>H5</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99">
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100">
         <f>O5</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99">
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100">
         <f>V5</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99">
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100">
         <f>AC5</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99">
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100">
         <f>AJ5</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99">
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100">
         <f>AQ5</f>
         <v>45824</v>
       </c>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99">
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="100">
         <f>AX5</f>
         <v>45831</v>
       </c>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="100"/>
+      <c r="BB4" s="100"/>
+      <c r="BC4" s="100"/>
+      <c r="BD4" s="100"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
@@ -11902,17 +11902,17 @@
       <c r="BK4"/>
     </row>
     <row r="5" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="107" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -12120,11 +12120,11 @@
       <c r="BK5"/>
     </row>
     <row r="6" spans="1:63" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="103"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="H6" s="25" t="str">
         <f t="shared" ref="H6:AM6" si="6">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
@@ -15342,138 +15342,138 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:K27">
-    <cfRule type="expression" dxfId="55" priority="34">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:M13 O13:AW13 AX13:BD16 H14:AW16">
-    <cfRule type="expression" dxfId="53" priority="37">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AW11">
-    <cfRule type="expression" dxfId="51" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="42" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:AW29 AX8:BD29 H4:AW11 P12:AW12 H12:M13 O13:AW13 AY37:BD37">
-    <cfRule type="expression" dxfId="50" priority="36">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AW29 AX35:BD36 AY37:BD37">
-    <cfRule type="expression" dxfId="49" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AW29 AY37:BD37 AX35:BD36">
-    <cfRule type="expression" dxfId="48" priority="71">
+    <cfRule type="expression" dxfId="22" priority="71">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:AW44">
-    <cfRule type="expression" dxfId="47" priority="20">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>AND(TODAY()&gt;=H$5, TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:AW33">
-    <cfRule type="expression" dxfId="46" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:AW37">
-    <cfRule type="expression" dxfId="45" priority="27">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:AW44">
-    <cfRule type="expression" dxfId="43" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BD11">
-    <cfRule type="expression" dxfId="42" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:BD29">
-    <cfRule type="expression" dxfId="41" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:BD33">
-    <cfRule type="expression" dxfId="39" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:BD44">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="expression" dxfId="37" priority="74">
+    <cfRule type="expression" dxfId="11" priority="74">
       <formula>AND(TODAY()&gt;=O$5, TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU44">
-    <cfRule type="expression" dxfId="36" priority="76">
+    <cfRule type="expression" dxfId="10" priority="76">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="79">
+    <cfRule type="expression" dxfId="9" priority="79">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BD6">
-    <cfRule type="expression" dxfId="33" priority="19">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:BD11">
-    <cfRule type="expression" dxfId="32" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX18:BD29">
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="5" priority="17">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX30:BD36">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX31:BD33">
-    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX38:BD44">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(TODAY()&gt;=AX$5, TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX39:BD44">
-    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15527,7 +15527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108462EA-BD33-4692-8FAA-C85C2C9FCC4F}">
   <dimension ref="B4:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -15859,6 +15859,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15867,7 +15887,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16179,27 +16199,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -16207,7 +16226,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16228,25 +16247,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>